--- a/cluster algorithm/Results_clusters=3/Solar_results.xlsx
+++ b/cluster algorithm/Results_clusters=3/Solar_results.xlsx
@@ -435,226 +435,226 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>0.0005235938878047618</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>0.0005235938878047618</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>0.0005235938878047618</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0005235938878047618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>0.01321117209981708</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>0.01321117209981708</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01321117209981708</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01321117209981708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>0.0703412897270847</v>
+        <v>0.000166085499350076</v>
       </c>
       <c r="B8">
-        <v>0.0703412897270847</v>
+        <v>0.000166085499350076</v>
       </c>
       <c r="C8">
-        <v>0.0703412897270847</v>
+        <v>0.000166085499350076</v>
       </c>
       <c r="D8">
-        <v>0.0703412897270847</v>
+        <v>0.000166085499350076</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>0.1827879484173019</v>
+        <v>0.013891186763063</v>
       </c>
       <c r="B9">
-        <v>0.1827879484173019</v>
+        <v>0.013891186763063</v>
       </c>
       <c r="C9">
-        <v>0.1827879484173019</v>
+        <v>0.013891186763063</v>
       </c>
       <c r="D9">
-        <v>0.1827879484173019</v>
+        <v>0.013891186763063</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>0.3208623791534416</v>
+        <v>0.0576971598580525</v>
       </c>
       <c r="B10">
-        <v>0.3208623791534416</v>
+        <v>0.0576971598580525</v>
       </c>
       <c r="C10">
-        <v>0.3208623791534416</v>
+        <v>0.0576971598580525</v>
       </c>
       <c r="D10">
-        <v>0.3208623791534416</v>
+        <v>0.0576971598580525</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>0.3802013207259086</v>
+        <v>0.12572790644991</v>
       </c>
       <c r="B11">
-        <v>0.3802013207259086</v>
+        <v>0.12572790644991</v>
       </c>
       <c r="C11">
-        <v>0.3802013207259086</v>
+        <v>0.12572790644991</v>
       </c>
       <c r="D11">
-        <v>0.3802013207259086</v>
+        <v>0.12572790644991</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>0.4446438809120619</v>
+        <v>0.175353804195346</v>
       </c>
       <c r="B12">
-        <v>0.4446438809120619</v>
+        <v>0.175353804195346</v>
       </c>
       <c r="C12">
-        <v>0.4446438809120619</v>
+        <v>0.175353804195346</v>
       </c>
       <c r="D12">
-        <v>0.4446438809120619</v>
+        <v>0.175353804195346</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>0.4258751644208142</v>
+        <v>0.19004156109905</v>
       </c>
       <c r="B13">
-        <v>0.4258751644208142</v>
+        <v>0.19004156109905</v>
       </c>
       <c r="C13">
-        <v>0.4258751644208142</v>
+        <v>0.19004156109905</v>
       </c>
       <c r="D13">
-        <v>0.4258751644208142</v>
+        <v>0.19004156109905</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>0.4166699317328209</v>
+        <v>0.197237542499307</v>
       </c>
       <c r="B14">
-        <v>0.4166699317328209</v>
+        <v>0.197237542499307</v>
       </c>
       <c r="C14">
-        <v>0.4166699317328209</v>
+        <v>0.197237542499307</v>
       </c>
       <c r="D14">
-        <v>0.4166699317328209</v>
+        <v>0.197237542499307</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>0.439775547275801</v>
+        <v>0.142962610187015</v>
       </c>
       <c r="B15">
-        <v>0.439775547275801</v>
+        <v>0.142962610187015</v>
       </c>
       <c r="C15">
-        <v>0.439775547275801</v>
+        <v>0.142962610187015</v>
       </c>
       <c r="D15">
-        <v>0.439775547275801</v>
+        <v>0.142962610187015</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>0.405576529118075</v>
+        <v>0.109470278016207</v>
       </c>
       <c r="B16">
-        <v>0.405576529118075</v>
+        <v>0.109470278016207</v>
       </c>
       <c r="C16">
-        <v>0.405576529118075</v>
+        <v>0.109470278016207</v>
       </c>
       <c r="D16">
-        <v>0.405576529118075</v>
+        <v>0.109470278016207</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>0.2709294855713656</v>
+        <v>0.0518923370441716</v>
       </c>
       <c r="B17">
-        <v>0.2709294855713656</v>
+        <v>0.0518923370441716</v>
       </c>
       <c r="C17">
-        <v>0.2709294855713656</v>
+        <v>0.0518923370441716</v>
       </c>
       <c r="D17">
-        <v>0.2709294855713656</v>
+        <v>0.0518923370441716</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>0.1894368108874916</v>
+        <v>0.00902589635016502</v>
       </c>
       <c r="B18">
-        <v>0.1894368108874916</v>
+        <v>0.00902589635016502</v>
       </c>
       <c r="C18">
-        <v>0.1894368108874916</v>
+        <v>0.00902589635016502</v>
       </c>
       <c r="D18">
-        <v>0.1894368108874916</v>
+        <v>0.00902589635016502</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>0.08042552004084662</v>
+        <v>0</v>
       </c>
       <c r="B19">
-        <v>0.08042552004084662</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08042552004084662</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.08042552004084662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>0.020994352038571</v>
+        <v>0</v>
       </c>
       <c r="B20">
-        <v>0.020994352038571</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>0.020994352038571</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.020994352038571</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>0.001885841778428801</v>
+        <v>0</v>
       </c>
       <c r="B21">
-        <v>0.001885841778428801</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>0.001885841778428801</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>0.001885841778428801</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -771,226 +771,226 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>0.001753554842480468</v>
+        <v>0</v>
       </c>
       <c r="B30">
-        <v>0.001753554842480468</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>0.001753554842480468</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>0.001753554842480468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>0.01497197450229905</v>
+        <v>0</v>
       </c>
       <c r="B31">
-        <v>0.01497197450229905</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>0.01497197450229905</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>0.01497197450229905</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>0.06901697955642268</v>
+        <v>0.000159501152968656</v>
       </c>
       <c r="B32">
-        <v>0.06901697955642268</v>
+        <v>0.000159501152968656</v>
       </c>
       <c r="C32">
-        <v>0.06901697955642268</v>
+        <v>0.000159501152968656</v>
       </c>
       <c r="D32">
-        <v>0.06901697955642268</v>
+        <v>0.000159501152968656</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>0.1727679928821176</v>
+        <v>0.0107244554848008</v>
       </c>
       <c r="B33">
-        <v>0.1727679928821176</v>
+        <v>0.0107244554848008</v>
       </c>
       <c r="C33">
-        <v>0.1727679928821176</v>
+        <v>0.0107244554848008</v>
       </c>
       <c r="D33">
-        <v>0.1727679928821176</v>
+        <v>0.0107244554848008</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>0.3106101074002246</v>
+        <v>0.0531038288570433</v>
       </c>
       <c r="B34">
-        <v>0.3106101074002246</v>
+        <v>0.0531038288570433</v>
       </c>
       <c r="C34">
-        <v>0.3106101074002246</v>
+        <v>0.0531038288570433</v>
       </c>
       <c r="D34">
-        <v>0.3106101074002246</v>
+        <v>0.0531038288570433</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>0.3977795749722677</v>
+        <v>0.141293692850717</v>
       </c>
       <c r="B35">
-        <v>0.3977795749722677</v>
+        <v>0.141293692850717</v>
       </c>
       <c r="C35">
-        <v>0.3977795749722677</v>
+        <v>0.141293692850717</v>
       </c>
       <c r="D35">
-        <v>0.3977795749722677</v>
+        <v>0.141293692850717</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>0.4522231898897819</v>
+        <v>0.213740087957181</v>
       </c>
       <c r="B36">
-        <v>0.4522231898897819</v>
+        <v>0.213740087957181</v>
       </c>
       <c r="C36">
-        <v>0.4522231898897819</v>
+        <v>0.213740087957181</v>
       </c>
       <c r="D36">
-        <v>0.4522231898897819</v>
+        <v>0.213740087957181</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>0.4580391914243905</v>
+        <v>0.244280135582419</v>
       </c>
       <c r="B37">
-        <v>0.4580391914243905</v>
+        <v>0.244280135582419</v>
       </c>
       <c r="C37">
-        <v>0.4580391914243905</v>
+        <v>0.244280135582419</v>
       </c>
       <c r="D37">
-        <v>0.4580391914243905</v>
+        <v>0.244280135582419</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>0.4678857041619737</v>
+        <v>0.242103433923985</v>
       </c>
       <c r="B38">
-        <v>0.4678857041619737</v>
+        <v>0.242103433923985</v>
       </c>
       <c r="C38">
-        <v>0.4678857041619737</v>
+        <v>0.242103433923985</v>
       </c>
       <c r="D38">
-        <v>0.4678857041619737</v>
+        <v>0.242103433923985</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>0.4142838425467973</v>
+        <v>0.208669874389667</v>
       </c>
       <c r="B39">
-        <v>0.4142838425467973</v>
+        <v>0.208669874389667</v>
       </c>
       <c r="C39">
-        <v>0.4142838425467973</v>
+        <v>0.208669874389667</v>
       </c>
       <c r="D39">
-        <v>0.4142838425467973</v>
+        <v>0.208669874389667</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>0.3586295698013306</v>
+        <v>0.139239989852419</v>
       </c>
       <c r="B40">
-        <v>0.3586295698013306</v>
+        <v>0.139239989852419</v>
       </c>
       <c r="C40">
-        <v>0.3586295698013306</v>
+        <v>0.139239989852419</v>
       </c>
       <c r="D40">
-        <v>0.3586295698013306</v>
+        <v>0.139239989852419</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>0.2969072135096447</v>
+        <v>0.0630632256727905</v>
       </c>
       <c r="B41">
-        <v>0.2969072135096447</v>
+        <v>0.0630632256727905</v>
       </c>
       <c r="C41">
-        <v>0.2969072135096447</v>
+        <v>0.0630632256727905</v>
       </c>
       <c r="D41">
-        <v>0.2969072135096447</v>
+        <v>0.0630632256727905</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>0.1782626926857711</v>
+        <v>0.00980732316895079</v>
       </c>
       <c r="B42">
-        <v>0.1782626926857711</v>
+        <v>0.00980732316895079</v>
       </c>
       <c r="C42">
-        <v>0.1782626926857711</v>
+        <v>0.00980732316895079</v>
       </c>
       <c r="D42">
-        <v>0.1782626926857711</v>
+        <v>0.00980732316895079</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>0.08295599510424329</v>
+        <v>0</v>
       </c>
       <c r="B43">
-        <v>0.08295599510424329</v>
+        <v>0</v>
       </c>
       <c r="C43">
-        <v>0.08295599510424329</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>0.08295599510424329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
-        <v>0.01794242304642995</v>
+        <v>0</v>
       </c>
       <c r="B44">
-        <v>0.01794242304642995</v>
+        <v>0</v>
       </c>
       <c r="C44">
-        <v>0.01794242304642995</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>0.01794242304642995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
-        <v>0.001436888906775417</v>
+        <v>0</v>
       </c>
       <c r="B45">
-        <v>0.001436888906775417</v>
+        <v>0</v>
       </c>
       <c r="C45">
-        <v>0.001436888906775417</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>0.001436888906775417</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1107,226 +1107,226 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>0.001348156512917121</v>
+        <v>0</v>
       </c>
       <c r="B54">
-        <v>0.001348156512917121</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>0.001348156512917121</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>0.001348156512917121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>0.01508939519675092</v>
+        <v>0</v>
       </c>
       <c r="B55">
-        <v>0.01508939519675092</v>
+        <v>0</v>
       </c>
       <c r="C55">
-        <v>0.01508939519675092</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>0.01508939519675092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>0.08051751242387636</v>
+        <v>0.000152967374689526</v>
       </c>
       <c r="B56">
-        <v>0.08051751242387636</v>
+        <v>0.000152967374689526</v>
       </c>
       <c r="C56">
-        <v>0.08051751242387636</v>
+        <v>0.000152967374689526</v>
       </c>
       <c r="D56">
-        <v>0.08051751242387636</v>
+        <v>0.000152967374689526</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>0.1695118646551612</v>
+        <v>0.0144293642177025</v>
       </c>
       <c r="B57">
-        <v>0.1695118646551612</v>
+        <v>0.0144293642177025</v>
       </c>
       <c r="C57">
-        <v>0.1695118646551612</v>
+        <v>0.0144293642177025</v>
       </c>
       <c r="D57">
-        <v>0.1695118646551612</v>
+        <v>0.0144293642177025</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>0.2651382289943106</v>
+        <v>0.0693909857498979</v>
       </c>
       <c r="B58">
-        <v>0.2651382289943106</v>
+        <v>0.0693909857498979</v>
       </c>
       <c r="C58">
-        <v>0.2651382289943106</v>
+        <v>0.0693909857498979</v>
       </c>
       <c r="D58">
-        <v>0.2651382289943106</v>
+        <v>0.0693909857498979</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>0.3748996687692523</v>
+        <v>0.13325199067228</v>
       </c>
       <c r="B59">
-        <v>0.3748996687692523</v>
+        <v>0.13325199067228</v>
       </c>
       <c r="C59">
-        <v>0.3748996687692523</v>
+        <v>0.13325199067228</v>
       </c>
       <c r="D59">
-        <v>0.3748996687692523</v>
+        <v>0.13325199067228</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>0.497234141413028</v>
+        <v>0.192544265944656</v>
       </c>
       <c r="B60">
-        <v>0.497234141413028</v>
+        <v>0.192544265944656</v>
       </c>
       <c r="C60">
-        <v>0.497234141413028</v>
+        <v>0.192544265944656</v>
       </c>
       <c r="D60">
-        <v>0.497234141413028</v>
+        <v>0.192544265944656</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>0.524603814598145</v>
+        <v>0.214872995983982</v>
       </c>
       <c r="B61">
-        <v>0.524603814598145</v>
+        <v>0.214872995983982</v>
       </c>
       <c r="C61">
-        <v>0.524603814598145</v>
+        <v>0.214872995983982</v>
       </c>
       <c r="D61">
-        <v>0.524603814598145</v>
+        <v>0.214872995983982</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>0.5404994881568381</v>
+        <v>0.212612362842649</v>
       </c>
       <c r="B62">
-        <v>0.5404994881568381</v>
+        <v>0.212612362842649</v>
       </c>
       <c r="C62">
-        <v>0.5404994881568381</v>
+        <v>0.212612362842649</v>
       </c>
       <c r="D62">
-        <v>0.5404994881568381</v>
+        <v>0.212612362842649</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>0.463680396049937</v>
+        <v>0.174883047044809</v>
       </c>
       <c r="B63">
-        <v>0.463680396049937</v>
+        <v>0.174883047044809</v>
       </c>
       <c r="C63">
-        <v>0.463680396049937</v>
+        <v>0.174883047044809</v>
       </c>
       <c r="D63">
-        <v>0.463680396049937</v>
+        <v>0.174883047044809</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>0.369636386097137</v>
+        <v>0.117227659588722</v>
       </c>
       <c r="B64">
-        <v>0.369636386097137</v>
+        <v>0.117227659588722</v>
       </c>
       <c r="C64">
-        <v>0.369636386097137</v>
+        <v>0.117227659588722</v>
       </c>
       <c r="D64">
-        <v>0.369636386097137</v>
+        <v>0.117227659588722</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>0.2974915230595903</v>
+        <v>0.0458943330718842</v>
       </c>
       <c r="B65">
-        <v>0.2974915230595903</v>
+        <v>0.0458943330718842</v>
       </c>
       <c r="C65">
-        <v>0.2974915230595903</v>
+        <v>0.0458943330718842</v>
       </c>
       <c r="D65">
-        <v>0.2974915230595903</v>
+        <v>0.0458943330718842</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>0.209538982314159</v>
+        <v>0.00725582521284549</v>
       </c>
       <c r="B66">
-        <v>0.209538982314159</v>
+        <v>0.00725582521284549</v>
       </c>
       <c r="C66">
-        <v>0.209538982314159</v>
+        <v>0.00725582521284549</v>
       </c>
       <c r="D66">
-        <v>0.209538982314159</v>
+        <v>0.00725582521284549</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>0.07609900505914514</v>
+        <v>0</v>
       </c>
       <c r="B67">
-        <v>0.07609900505914514</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>0.07609900505914514</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0.07609900505914514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>0.02049093146713027</v>
+        <v>0</v>
       </c>
       <c r="B68">
-        <v>0.02049093146713027</v>
+        <v>0</v>
       </c>
       <c r="C68">
-        <v>0.02049093146713027</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>0.02049093146713027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>0.001681949959021958</v>
+        <v>0</v>
       </c>
       <c r="B69">
-        <v>0.001681949959021958</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>0.001681949959021958</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>0.001681949959021958</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -1443,226 +1443,226 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>0.001801078029957927</v>
+        <v>0</v>
       </c>
       <c r="B78">
-        <v>0.001801078029957927</v>
+        <v>0</v>
       </c>
       <c r="C78">
-        <v>0.001801078029957927</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>0.001801078029957927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>0.01304512122279501</v>
+        <v>0</v>
       </c>
       <c r="B79">
-        <v>0.01304512122279501</v>
+        <v>0</v>
       </c>
       <c r="C79">
-        <v>0.01304512122279501</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>0.01304512122279501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>0.06950243576869158</v>
+        <v>0.000146490710348885</v>
       </c>
       <c r="B80">
-        <v>0.06950243576869158</v>
+        <v>0.000146490710348885</v>
       </c>
       <c r="C80">
-        <v>0.06950243576869158</v>
+        <v>0.000146490710348885</v>
       </c>
       <c r="D80">
-        <v>0.06950243576869158</v>
+        <v>0.000146490710348885</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>0.1945172990936709</v>
+        <v>0.0127029292183045</v>
       </c>
       <c r="B81">
-        <v>0.1945172990936709</v>
+        <v>0.0127029292183045</v>
       </c>
       <c r="C81">
-        <v>0.1945172990936709</v>
+        <v>0.0127029292183045</v>
       </c>
       <c r="D81">
-        <v>0.1945172990936709</v>
+        <v>0.0127029292183045</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>0.2835673156000034</v>
+        <v>0.0572569019500225</v>
       </c>
       <c r="B82">
-        <v>0.2835673156000034</v>
+        <v>0.0572569019500225</v>
       </c>
       <c r="C82">
-        <v>0.2835673156000034</v>
+        <v>0.0572569019500225</v>
       </c>
       <c r="D82">
-        <v>0.2835673156000034</v>
+        <v>0.0572569019500225</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>0.3710165211928143</v>
+        <v>0.122800276382678</v>
       </c>
       <c r="B83">
-        <v>0.3710165211928143</v>
+        <v>0.122800276382678</v>
       </c>
       <c r="C83">
-        <v>0.3710165211928143</v>
+        <v>0.122800276382678</v>
       </c>
       <c r="D83">
-        <v>0.3710165211928143</v>
+        <v>0.122800276382678</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>0.4499120667687889</v>
+        <v>0.166718836763861</v>
       </c>
       <c r="B84">
-        <v>0.4499120667687889</v>
+        <v>0.166718836763861</v>
       </c>
       <c r="C84">
-        <v>0.4499120667687889</v>
+        <v>0.166718836763861</v>
       </c>
       <c r="D84">
-        <v>0.4499120667687889</v>
+        <v>0.166718836763861</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>0.4671430989928143</v>
+        <v>0.200181743188356</v>
       </c>
       <c r="B85">
-        <v>0.4671430989928143</v>
+        <v>0.200181743188356</v>
       </c>
       <c r="C85">
-        <v>0.4671430989928143</v>
+        <v>0.200181743188356</v>
       </c>
       <c r="D85">
-        <v>0.4671430989928143</v>
+        <v>0.200181743188356</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>0.4662078032655824</v>
+        <v>0.205202900630538</v>
       </c>
       <c r="B86">
-        <v>0.4662078032655824</v>
+        <v>0.205202900630538</v>
       </c>
       <c r="C86">
-        <v>0.4662078032655824</v>
+        <v>0.205202900630538</v>
       </c>
       <c r="D86">
-        <v>0.4662078032655824</v>
+        <v>0.205202900630538</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>0.4018796061886918</v>
+        <v>0.162337668514515</v>
       </c>
       <c r="B87">
-        <v>0.4018796061886918</v>
+        <v>0.162337668514515</v>
       </c>
       <c r="C87">
-        <v>0.4018796061886918</v>
+        <v>0.162337668514515</v>
       </c>
       <c r="D87">
-        <v>0.4018796061886918</v>
+        <v>0.162337668514515</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>0.3355994025561702</v>
+        <v>0.115382921340004</v>
       </c>
       <c r="B88">
-        <v>0.3355994025561702</v>
+        <v>0.115382921340004</v>
       </c>
       <c r="C88">
-        <v>0.3355994025561702</v>
+        <v>0.115382921340004</v>
       </c>
       <c r="D88">
-        <v>0.3355994025561702</v>
+        <v>0.115382921340004</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>0.2947083598404121</v>
+        <v>0.0447570794391773</v>
       </c>
       <c r="B89">
-        <v>0.2947083598404121</v>
+        <v>0.0447570794391773</v>
       </c>
       <c r="C89">
-        <v>0.2947083598404121</v>
+        <v>0.0447570794391773</v>
       </c>
       <c r="D89">
-        <v>0.2947083598404121</v>
+        <v>0.0447570794391773</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>0.1794605362189616</v>
+        <v>0.00597305617793446</v>
       </c>
       <c r="B90">
-        <v>0.1794605362189616</v>
+        <v>0.00597305617793446</v>
       </c>
       <c r="C90">
-        <v>0.1794605362189616</v>
+        <v>0.00597305617793446</v>
       </c>
       <c r="D90">
-        <v>0.1794605362189616</v>
+        <v>0.00597305617793446</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>0.07884742213583164</v>
+        <v>0</v>
       </c>
       <c r="B91">
-        <v>0.07884742213583164</v>
+        <v>0</v>
       </c>
       <c r="C91">
-        <v>0.07884742213583164</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>0.07884742213583164</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>0.01637097917321989</v>
+        <v>0</v>
       </c>
       <c r="B92">
-        <v>0.01637097917321989</v>
+        <v>0</v>
       </c>
       <c r="C92">
-        <v>0.01637097917321989</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>0.01637097917321989</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>0.001072310039313004</v>
+        <v>0</v>
       </c>
       <c r="B93">
-        <v>0.001072310039313004</v>
+        <v>0</v>
       </c>
       <c r="C93">
-        <v>0.001072310039313004</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>0.001072310039313004</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -1779,226 +1779,226 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>0.003635922025901517</v>
+        <v>0</v>
       </c>
       <c r="B102">
-        <v>0.003635922025901517</v>
+        <v>0</v>
       </c>
       <c r="C102">
-        <v>0.003635922025901517</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>0.003635922025901517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>0.02655800777935998</v>
+        <v>0</v>
       </c>
       <c r="B103">
-        <v>0.02655800777935998</v>
+        <v>0</v>
       </c>
       <c r="C103">
-        <v>0.02655800777935998</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>0.02655800777935998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>0.09659419384372629</v>
+        <v>0.000355293409658726</v>
       </c>
       <c r="B104">
-        <v>0.09659419384372629</v>
+        <v>0.000355293409658726</v>
       </c>
       <c r="C104">
-        <v>0.09659419384372629</v>
+        <v>0.000355293409658726</v>
       </c>
       <c r="D104">
-        <v>0.09659419384372629</v>
+        <v>0.000355293409658726</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>0.2018493015438038</v>
+        <v>0.0139701408434668</v>
       </c>
       <c r="B105">
-        <v>0.2018493015438038</v>
+        <v>0.0139701408434668</v>
       </c>
       <c r="C105">
-        <v>0.2018493015438038</v>
+        <v>0.0139701408434668</v>
       </c>
       <c r="D105">
-        <v>0.2018493015438038</v>
+        <v>0.0139701408434668</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>0.3311844134946226</v>
+        <v>0.066620409929481</v>
       </c>
       <c r="B106">
-        <v>0.3311844134946226</v>
+        <v>0.066620409929481</v>
       </c>
       <c r="C106">
-        <v>0.3311844134946226</v>
+        <v>0.066620409929481</v>
       </c>
       <c r="D106">
-        <v>0.3311844134946226</v>
+        <v>0.066620409929481</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>0.4073967800669895</v>
+        <v>0.126605758835292</v>
       </c>
       <c r="B107">
-        <v>0.4073967800669895</v>
+        <v>0.126605758835292</v>
       </c>
       <c r="C107">
-        <v>0.4073967800669895</v>
+        <v>0.126605758835292</v>
       </c>
       <c r="D107">
-        <v>0.4073967800669895</v>
+        <v>0.126605758835292</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>0.4095104730865496</v>
+        <v>0.174414464890337</v>
       </c>
       <c r="B108">
-        <v>0.4095104730865496</v>
+        <v>0.174414464890337</v>
       </c>
       <c r="C108">
-        <v>0.4095104730865496</v>
+        <v>0.174414464890337</v>
       </c>
       <c r="D108">
-        <v>0.4095104730865496</v>
+        <v>0.174414464890337</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>0.3991768087689588</v>
+        <v>0.231175092347086</v>
       </c>
       <c r="B109">
-        <v>0.3991768087689588</v>
+        <v>0.231175092347086</v>
       </c>
       <c r="C109">
-        <v>0.3991768087689588</v>
+        <v>0.231175092347086</v>
       </c>
       <c r="D109">
-        <v>0.3991768087689588</v>
+        <v>0.231175092347086</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>0.3924090682244504</v>
+        <v>0.240108242264129</v>
       </c>
       <c r="B110">
-        <v>0.3924090682244504</v>
+        <v>0.240108242264129</v>
       </c>
       <c r="C110">
-        <v>0.3924090682244504</v>
+        <v>0.240108242264129</v>
       </c>
       <c r="D110">
-        <v>0.3924090682244504</v>
+        <v>0.240108242264129</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>0.3447395465787205</v>
+        <v>0.20894992134453</v>
       </c>
       <c r="B111">
-        <v>0.3447395465787205</v>
+        <v>0.20894992134453</v>
       </c>
       <c r="C111">
-        <v>0.3447395465787205</v>
+        <v>0.20894992134453</v>
       </c>
       <c r="D111">
-        <v>0.3447395465787205</v>
+        <v>0.20894992134453</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>0.3708279810358509</v>
+        <v>0.122283377295447</v>
       </c>
       <c r="B112">
-        <v>0.3708279810358509</v>
+        <v>0.122283377295447</v>
       </c>
       <c r="C112">
-        <v>0.3708279810358509</v>
+        <v>0.122283377295447</v>
       </c>
       <c r="D112">
-        <v>0.3708279810358509</v>
+        <v>0.122283377295447</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>0.2963411885979058</v>
+        <v>0.0508780958333698</v>
       </c>
       <c r="B113">
-        <v>0.2963411885979058</v>
+        <v>0.0508780958333698</v>
       </c>
       <c r="C113">
-        <v>0.2963411885979058</v>
+        <v>0.0508780958333698</v>
       </c>
       <c r="D113">
-        <v>0.2963411885979058</v>
+        <v>0.0508780958333698</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
-        <v>0.182713719642318</v>
+        <v>0.00840862388386779</v>
       </c>
       <c r="B114">
-        <v>0.182713719642318</v>
+        <v>0.00840862388386779</v>
       </c>
       <c r="C114">
-        <v>0.182713719642318</v>
+        <v>0.00840862388386779</v>
       </c>
       <c r="D114">
-        <v>0.182713719642318</v>
+        <v>0.00840862388386779</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>0.07747294949638409</v>
+        <v>0</v>
       </c>
       <c r="B115">
-        <v>0.07747294949638409</v>
+        <v>0</v>
       </c>
       <c r="C115">
-        <v>0.07747294949638409</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>0.07747294949638409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>0.01994611868372567</v>
+        <v>0</v>
       </c>
       <c r="B116">
-        <v>0.01994611868372567</v>
+        <v>0</v>
       </c>
       <c r="C116">
-        <v>0.01994611868372567</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>0.01994611868372567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>0.001632794717372416</v>
+        <v>0</v>
       </c>
       <c r="B117">
-        <v>0.001632794717372416</v>
+        <v>0</v>
       </c>
       <c r="C117">
-        <v>0.001632794717372416</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>0.001632794717372416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -2115,226 +2115,226 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>0.002363478325905505</v>
+        <v>0</v>
       </c>
       <c r="B126">
-        <v>0.002363478325905505</v>
+        <v>0</v>
       </c>
       <c r="C126">
-        <v>0.002363478325905505</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>0.002363478325905505</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>0.01910549492631149</v>
+        <v>0</v>
       </c>
       <c r="B127">
-        <v>0.01910549492631149</v>
+        <v>0</v>
       </c>
       <c r="C127">
-        <v>0.01910549492631149</v>
+        <v>0</v>
       </c>
       <c r="D127">
-        <v>0.01910549492631149</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>0.07262871485207224</v>
+        <v>0.000483351305405384</v>
       </c>
       <c r="B128">
-        <v>0.07262871485207224</v>
+        <v>0.000483351305405384</v>
       </c>
       <c r="C128">
-        <v>0.07262871485207224</v>
+        <v>0.000483351305405384</v>
       </c>
       <c r="D128">
-        <v>0.07262871485207224</v>
+        <v>0.000483351305405384</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>0.187084334500282</v>
+        <v>0.0151126850693456</v>
       </c>
       <c r="B129">
-        <v>0.187084334500282</v>
+        <v>0.0151126850693456</v>
       </c>
       <c r="C129">
-        <v>0.187084334500282</v>
+        <v>0.0151126850693456</v>
       </c>
       <c r="D129">
-        <v>0.187084334500282</v>
+        <v>0.0151126850693456</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>0.3507947744133031</v>
+        <v>0.0618503034453008</v>
       </c>
       <c r="B130">
-        <v>0.3507947744133031</v>
+        <v>0.0618503034453008</v>
       </c>
       <c r="C130">
-        <v>0.3507947744133031</v>
+        <v>0.0618503034453008</v>
       </c>
       <c r="D130">
-        <v>0.3507947744133031</v>
+        <v>0.0618503034453008</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>0.4909238819855874</v>
+        <v>0.128565129509687</v>
       </c>
       <c r="B131">
-        <v>0.4909238819855874</v>
+        <v>0.128565129509687</v>
       </c>
       <c r="C131">
-        <v>0.4909238819855874</v>
+        <v>0.128565129509687</v>
       </c>
       <c r="D131">
-        <v>0.4909238819855874</v>
+        <v>0.128565129509687</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>0.5537733381728315</v>
+        <v>0.175163038271671</v>
       </c>
       <c r="B132">
-        <v>0.5537733381728315</v>
+        <v>0.175163038271671</v>
       </c>
       <c r="C132">
-        <v>0.5537733381728315</v>
+        <v>0.175163038271671</v>
       </c>
       <c r="D132">
-        <v>0.5537733381728315</v>
+        <v>0.175163038271671</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>0.5477372535347307</v>
+        <v>0.213739440333738</v>
       </c>
       <c r="B133">
-        <v>0.5477372535347307</v>
+        <v>0.213739440333738</v>
       </c>
       <c r="C133">
-        <v>0.5477372535347307</v>
+        <v>0.213739440333738</v>
       </c>
       <c r="D133">
-        <v>0.5477372535347307</v>
+        <v>0.213739440333738</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>0.5783673310580215</v>
+        <v>0.219198610361089</v>
       </c>
       <c r="B134">
-        <v>0.5783673310580215</v>
+        <v>0.219198610361089</v>
       </c>
       <c r="C134">
-        <v>0.5783673310580215</v>
+        <v>0.219198610361089</v>
       </c>
       <c r="D134">
-        <v>0.5783673310580215</v>
+        <v>0.219198610361089</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>0.5438451422318175</v>
+        <v>0.184663534592392</v>
       </c>
       <c r="B135">
-        <v>0.5438451422318175</v>
+        <v>0.184663534592392</v>
       </c>
       <c r="C135">
-        <v>0.5438451422318175</v>
+        <v>0.184663534592392</v>
       </c>
       <c r="D135">
-        <v>0.5438451422318175</v>
+        <v>0.184663534592392</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>0.4431900630905093</v>
+        <v>0.12177765859024</v>
       </c>
       <c r="B136">
-        <v>0.4431900630905093</v>
+        <v>0.12177765859024</v>
       </c>
       <c r="C136">
-        <v>0.4431900630905093</v>
+        <v>0.12177765859024</v>
       </c>
       <c r="D136">
-        <v>0.4431900630905093</v>
+        <v>0.12177765859024</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>0.309803206698088</v>
+        <v>0.0506069496554055</v>
       </c>
       <c r="B137">
-        <v>0.309803206698088</v>
+        <v>0.0506069496554055</v>
       </c>
       <c r="C137">
-        <v>0.309803206698088</v>
+        <v>0.0506069496554055</v>
       </c>
       <c r="D137">
-        <v>0.309803206698088</v>
+        <v>0.0506069496554055</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>0.2087947358812949</v>
+        <v>0.0112997713958085</v>
       </c>
       <c r="B138">
-        <v>0.2087947358812949</v>
+        <v>0.0112997713958085</v>
       </c>
       <c r="C138">
-        <v>0.2087947358812949</v>
+        <v>0.0112997713958085</v>
       </c>
       <c r="D138">
-        <v>0.2087947358812949</v>
+        <v>0.0112997713958085</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>0.08221628016710948</v>
+        <v>0.000383322781154497</v>
       </c>
       <c r="B139">
-        <v>0.08221628016710948</v>
+        <v>0.000383322781154497</v>
       </c>
       <c r="C139">
-        <v>0.08221628016710948</v>
+        <v>0.000383322781154497</v>
       </c>
       <c r="D139">
-        <v>0.08221628016710948</v>
+        <v>0.000383322781154497</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>0.02092315420072047</v>
+        <v>0</v>
       </c>
       <c r="B140">
-        <v>0.02092315420072047</v>
+        <v>0</v>
       </c>
       <c r="C140">
-        <v>0.02092315420072047</v>
+        <v>0</v>
       </c>
       <c r="D140">
-        <v>0.02092315420072047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>0.00166054588050117</v>
+        <v>0</v>
       </c>
       <c r="B141">
-        <v>0.00166054588050117</v>
+        <v>0</v>
       </c>
       <c r="C141">
-        <v>0.00166054588050117</v>
+        <v>0</v>
       </c>
       <c r="D141">
-        <v>0.00166054588050117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -2451,226 +2451,226 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150">
-        <v>0.001317645910781772</v>
+        <v>0</v>
       </c>
       <c r="B150">
-        <v>0.001317645910781772</v>
+        <v>0</v>
       </c>
       <c r="C150">
-        <v>0.001317645910781772</v>
+        <v>0</v>
       </c>
       <c r="D150">
-        <v>0.001317645910781772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151">
-        <v>0.01105611238803476</v>
+        <v>0</v>
       </c>
       <c r="B151">
-        <v>0.01105611238803476</v>
+        <v>0</v>
       </c>
       <c r="C151">
-        <v>0.01105611238803476</v>
+        <v>0</v>
       </c>
       <c r="D151">
-        <v>0.01105611238803476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152">
-        <v>0.05819585859487354</v>
+        <v>0.00047579889755681</v>
       </c>
       <c r="B152">
-        <v>0.05819585859487354</v>
+        <v>0.00047579889755681</v>
       </c>
       <c r="C152">
-        <v>0.05819585859487354</v>
+        <v>0.00047579889755681</v>
       </c>
       <c r="D152">
-        <v>0.05819585859487354</v>
+        <v>0.00047579889755681</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153">
-        <v>0.1917650033336109</v>
+        <v>0.0105813224013437</v>
       </c>
       <c r="B153">
-        <v>0.1917650033336109</v>
+        <v>0.0105813224013437</v>
       </c>
       <c r="C153">
-        <v>0.1917650033336109</v>
+        <v>0.0105813224013437</v>
       </c>
       <c r="D153">
-        <v>0.1917650033336109</v>
+        <v>0.0105813224013437</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154">
-        <v>0.3297121407079872</v>
+        <v>0.0513554490168064</v>
       </c>
       <c r="B154">
-        <v>0.3297121407079872</v>
+        <v>0.0513554490168064</v>
       </c>
       <c r="C154">
-        <v>0.3297121407079872</v>
+        <v>0.0513554490168064</v>
       </c>
       <c r="D154">
-        <v>0.3297121407079872</v>
+        <v>0.0513554490168064</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155">
-        <v>0.4516904369029445</v>
+        <v>0.118964172194822</v>
       </c>
       <c r="B155">
-        <v>0.4516904369029445</v>
+        <v>0.118964172194822</v>
       </c>
       <c r="C155">
-        <v>0.4516904369029445</v>
+        <v>0.118964172194822</v>
       </c>
       <c r="D155">
-        <v>0.4516904369029445</v>
+        <v>0.118964172194822</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156">
-        <v>0.4555418366285829</v>
+        <v>0.180024805951173</v>
       </c>
       <c r="B156">
-        <v>0.4555418366285829</v>
+        <v>0.180024805951173</v>
       </c>
       <c r="C156">
-        <v>0.4555418366285829</v>
+        <v>0.180024805951173</v>
       </c>
       <c r="D156">
-        <v>0.4555418366285829</v>
+        <v>0.180024805951173</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157">
-        <v>0.4312873981842008</v>
+        <v>0.213272478417134</v>
       </c>
       <c r="B157">
-        <v>0.4312873981842008</v>
+        <v>0.213272478417134</v>
       </c>
       <c r="C157">
-        <v>0.4312873981842008</v>
+        <v>0.213272478417134</v>
       </c>
       <c r="D157">
-        <v>0.4312873981842008</v>
+        <v>0.213272478417134</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158">
-        <v>0.4400852425146217</v>
+        <v>0.199079472403887</v>
       </c>
       <c r="B158">
-        <v>0.4400852425146217</v>
+        <v>0.199079472403887</v>
       </c>
       <c r="C158">
-        <v>0.4400852425146217</v>
+        <v>0.199079472403887</v>
       </c>
       <c r="D158">
-        <v>0.4400852425146217</v>
+        <v>0.199079472403887</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159">
-        <v>0.4583461606871901</v>
+        <v>0.128370141576378</v>
       </c>
       <c r="B159">
-        <v>0.4583461606871901</v>
+        <v>0.128370141576378</v>
       </c>
       <c r="C159">
-        <v>0.4583461606871901</v>
+        <v>0.128370141576378</v>
       </c>
       <c r="D159">
-        <v>0.4583461606871901</v>
+        <v>0.128370141576378</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160">
-        <v>0.3992496145553232</v>
+        <v>0.0802003363858649</v>
       </c>
       <c r="B160">
-        <v>0.3992496145553232</v>
+        <v>0.0802003363858649</v>
       </c>
       <c r="C160">
-        <v>0.3992496145553232</v>
+        <v>0.0802003363858649</v>
       </c>
       <c r="D160">
-        <v>0.3992496145553232</v>
+        <v>0.0802003363858649</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161">
-        <v>0.3096270131054676</v>
+        <v>0.0332245729870141</v>
       </c>
       <c r="B161">
-        <v>0.3096270131054676</v>
+        <v>0.0332245729870141</v>
       </c>
       <c r="C161">
-        <v>0.3096270131054676</v>
+        <v>0.0332245729870141</v>
       </c>
       <c r="D161">
-        <v>0.3096270131054676</v>
+        <v>0.0332245729870141</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162">
-        <v>0.1971891453998253</v>
+        <v>0.00568373938656504</v>
       </c>
       <c r="B162">
-        <v>0.1971891453998253</v>
+        <v>0.00568373938656504</v>
       </c>
       <c r="C162">
-        <v>0.1971891453998253</v>
+        <v>0.00568373938656504</v>
       </c>
       <c r="D162">
-        <v>0.1971891453998253</v>
+        <v>0.00568373938656504</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163">
-        <v>0.08050260201411739</v>
+        <v>0.000112525432656089</v>
       </c>
       <c r="B163">
-        <v>0.08050260201411739</v>
+        <v>0.000112525432656089</v>
       </c>
       <c r="C163">
-        <v>0.08050260201411739</v>
+        <v>0.000112525432656089</v>
       </c>
       <c r="D163">
-        <v>0.08050260201411739</v>
+        <v>0.000112525432656089</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164">
-        <v>0.01488398758728847</v>
+        <v>0</v>
       </c>
       <c r="B164">
-        <v>0.01488398758728847</v>
+        <v>0</v>
       </c>
       <c r="C164">
-        <v>0.01488398758728847</v>
+        <v>0</v>
       </c>
       <c r="D164">
-        <v>0.01488398758728847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165">
-        <v>0.0004662821242229215</v>
+        <v>0</v>
       </c>
       <c r="B165">
-        <v>0.0004662821242229215</v>
+        <v>0</v>
       </c>
       <c r="C165">
-        <v>0.0004662821242229215</v>
+        <v>0</v>
       </c>
       <c r="D165">
-        <v>0.0004662821242229215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2787,226 +2787,226 @@
     </row>
     <row r="174" spans="1:4">
       <c r="A174">
-        <v>0.0009405015392206973</v>
+        <v>0.00102177945001755</v>
       </c>
       <c r="B174">
-        <v>0.0009405015392206973</v>
+        <v>0.00102177945001755</v>
       </c>
       <c r="C174">
-        <v>0.0009405015392206973</v>
+        <v>0.00102177945001755</v>
       </c>
       <c r="D174">
-        <v>0.0009405015392206973</v>
+        <v>0.00102177945001755</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175">
-        <v>0.01166949913973025</v>
+        <v>0.0128764854965845</v>
       </c>
       <c r="B175">
-        <v>0.01166949913973025</v>
+        <v>0.0128764854965845</v>
       </c>
       <c r="C175">
-        <v>0.01166949913973025</v>
+        <v>0.0128764854965845</v>
       </c>
       <c r="D175">
-        <v>0.01166949913973025</v>
+        <v>0.0128764854965845</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176">
-        <v>0.05495793896639046</v>
+        <v>0.0600799286623274</v>
       </c>
       <c r="B176">
-        <v>0.05495793896639046</v>
+        <v>0.0600799286623274</v>
       </c>
       <c r="C176">
-        <v>0.05495793896639046</v>
+        <v>0.0600799286623274</v>
       </c>
       <c r="D176">
-        <v>0.05495793896639046</v>
+        <v>0.0600799286623274</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177">
-        <v>0.1597594746616769</v>
+        <v>0.168701387542207</v>
       </c>
       <c r="B177">
-        <v>0.1597594746616769</v>
+        <v>0.168701387542207</v>
       </c>
       <c r="C177">
-        <v>0.1597594746616769</v>
+        <v>0.168701387542207</v>
       </c>
       <c r="D177">
-        <v>0.1597594746616769</v>
+        <v>0.168701387542207</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178">
-        <v>0.2938568083559677</v>
+        <v>0.309720439834487</v>
       </c>
       <c r="B178">
-        <v>0.2938568083559677</v>
+        <v>0.309720439834487</v>
       </c>
       <c r="C178">
-        <v>0.2938568083559677</v>
+        <v>0.309720439834487</v>
       </c>
       <c r="D178">
-        <v>0.2938568083559677</v>
+        <v>0.309720439834487</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179">
-        <v>0.4131421751742605</v>
+        <v>0.431060796250893</v>
       </c>
       <c r="B179">
-        <v>0.4131421751742605</v>
+        <v>0.431060796250893</v>
       </c>
       <c r="C179">
-        <v>0.4131421751742605</v>
+        <v>0.431060796250893</v>
       </c>
       <c r="D179">
-        <v>0.4131421751742605</v>
+        <v>0.431060796250893</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180">
-        <v>0.4807697336536558</v>
+        <v>0.497919057681157</v>
       </c>
       <c r="B180">
-        <v>0.4807697336536558</v>
+        <v>0.497919057681157</v>
       </c>
       <c r="C180">
-        <v>0.4807697336536558</v>
+        <v>0.497919057681157</v>
       </c>
       <c r="D180">
-        <v>0.4807697336536558</v>
+        <v>0.497919057681157</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181">
-        <v>0.4874128012107012</v>
+        <v>0.514288013769749</v>
       </c>
       <c r="B181">
-        <v>0.4874128012107012</v>
+        <v>0.514288013769749</v>
       </c>
       <c r="C181">
-        <v>0.4874128012107012</v>
+        <v>0.514288013769749</v>
       </c>
       <c r="D181">
-        <v>0.4874128012107012</v>
+        <v>0.514288013769749</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182">
-        <v>0.4706818234333802</v>
+        <v>0.492703877433938</v>
       </c>
       <c r="B182">
-        <v>0.4706818234333802</v>
+        <v>0.492703877433938</v>
       </c>
       <c r="C182">
-        <v>0.4706818234333802</v>
+        <v>0.492703877433938</v>
       </c>
       <c r="D182">
-        <v>0.4706818234333802</v>
+        <v>0.492703877433938</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183">
-        <v>0.3981964554257621</v>
+        <v>0.417906042406073</v>
       </c>
       <c r="B183">
-        <v>0.3981964554257621</v>
+        <v>0.417906042406073</v>
       </c>
       <c r="C183">
-        <v>0.3981964554257621</v>
+        <v>0.417906042406073</v>
       </c>
       <c r="D183">
-        <v>0.3981964554257621</v>
+        <v>0.417906042406073</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184">
-        <v>0.3537276579862232</v>
+        <v>0.370589767704531</v>
       </c>
       <c r="B184">
-        <v>0.3537276579862232</v>
+        <v>0.370589767704531</v>
       </c>
       <c r="C184">
-        <v>0.3537276579862232</v>
+        <v>0.370589767704531</v>
       </c>
       <c r="D184">
-        <v>0.3537276579862232</v>
+        <v>0.370589767704531</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185">
-        <v>0.258816113554275</v>
+        <v>0.273719744803271</v>
       </c>
       <c r="B185">
-        <v>0.258816113554275</v>
+        <v>0.273719744803271</v>
       </c>
       <c r="C185">
-        <v>0.258816113554275</v>
+        <v>0.273719744803271</v>
       </c>
       <c r="D185">
-        <v>0.258816113554275</v>
+        <v>0.273719744803271</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186">
-        <v>0.1498997855148922</v>
+        <v>0.163223676314954</v>
       </c>
       <c r="B186">
-        <v>0.1498997855148922</v>
+        <v>0.163223676314954</v>
       </c>
       <c r="C186">
-        <v>0.1498997855148922</v>
+        <v>0.163223676314954</v>
       </c>
       <c r="D186">
-        <v>0.1498997855148922</v>
+        <v>0.163223676314954</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187">
-        <v>0.05464350724446754</v>
+        <v>0.0610268330270441</v>
       </c>
       <c r="B187">
-        <v>0.05464350724446754</v>
+        <v>0.0610268330270441</v>
       </c>
       <c r="C187">
-        <v>0.05464350724446754</v>
+        <v>0.0610268330270441</v>
       </c>
       <c r="D187">
-        <v>0.05464350724446754</v>
+        <v>0.0610268330270441</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188">
-        <v>0.009770782738393109</v>
+        <v>0.0111230352040853</v>
       </c>
       <c r="B188">
-        <v>0.009770782738393109</v>
+        <v>0.0111230352040853</v>
       </c>
       <c r="C188">
-        <v>0.009770782738393109</v>
+        <v>0.0111230352040853</v>
       </c>
       <c r="D188">
-        <v>0.009770782738393109</v>
+        <v>0.0111230352040853</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
       <c r="B189">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
       <c r="C189">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
       <c r="D189">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3123,226 +3123,226 @@
     </row>
     <row r="198" spans="1:4">
       <c r="A198">
-        <v>0.0007780128611026175</v>
+        <v>0.000845248540457165</v>
       </c>
       <c r="B198">
-        <v>0.0007780128611026175</v>
+        <v>0.000845248540457165</v>
       </c>
       <c r="C198">
-        <v>0.0007780128611026175</v>
+        <v>0.000845248540457165</v>
       </c>
       <c r="D198">
-        <v>0.0007780128611026175</v>
+        <v>0.000845248540457165</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199">
-        <v>0.009274202072754758</v>
+        <v>0.0101081299382978</v>
       </c>
       <c r="B199">
-        <v>0.009274202072754758</v>
+        <v>0.0101081299382978</v>
       </c>
       <c r="C199">
-        <v>0.009274202072754758</v>
+        <v>0.0101081299382978</v>
       </c>
       <c r="D199">
-        <v>0.009274202072754758</v>
+        <v>0.0101081299382978</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200">
-        <v>0.04588443557431669</v>
+        <v>0.04996288903769</v>
       </c>
       <c r="B200">
-        <v>0.04588443557431669</v>
+        <v>0.04996288903769</v>
       </c>
       <c r="C200">
-        <v>0.04588443557431669</v>
+        <v>0.04996288903769</v>
       </c>
       <c r="D200">
-        <v>0.04588443557431669</v>
+        <v>0.04996288903769</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201">
-        <v>0.1539624453098107</v>
+        <v>0.166569692672943</v>
       </c>
       <c r="B201">
-        <v>0.1539624453098107</v>
+        <v>0.166569692672943</v>
       </c>
       <c r="C201">
-        <v>0.1539624453098107</v>
+        <v>0.166569692672943</v>
       </c>
       <c r="D201">
-        <v>0.1539624453098107</v>
+        <v>0.166569692672943</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202">
-        <v>0.2950756401516108</v>
+        <v>0.313990619661329</v>
       </c>
       <c r="B202">
-        <v>0.2950756401516108</v>
+        <v>0.313990619661329</v>
       </c>
       <c r="C202">
-        <v>0.2950756401516108</v>
+        <v>0.313990619661329</v>
       </c>
       <c r="D202">
-        <v>0.2950756401516108</v>
+        <v>0.313990619661329</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203">
-        <v>0.4081127907548698</v>
+        <v>0.420114442965719</v>
       </c>
       <c r="B203">
-        <v>0.4081127907548698</v>
+        <v>0.420114442965719</v>
       </c>
       <c r="C203">
-        <v>0.4081127907548698</v>
+        <v>0.420114442965719</v>
       </c>
       <c r="D203">
-        <v>0.4081127907548698</v>
+        <v>0.420114442965719</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204">
-        <v>0.4709416432138692</v>
+        <v>0.475036702122976</v>
       </c>
       <c r="B204">
-        <v>0.4709416432138692</v>
+        <v>0.475036702122976</v>
       </c>
       <c r="C204">
-        <v>0.4709416432138692</v>
+        <v>0.475036702122976</v>
       </c>
       <c r="D204">
-        <v>0.4709416432138692</v>
+        <v>0.475036702122976</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205">
-        <v>0.5010383618323068</v>
+        <v>0.50828275194883</v>
       </c>
       <c r="B205">
-        <v>0.5010383618323068</v>
+        <v>0.50828275194883</v>
       </c>
       <c r="C205">
-        <v>0.5010383618323068</v>
+        <v>0.50828275194883</v>
       </c>
       <c r="D205">
-        <v>0.5010383618323068</v>
+        <v>0.50828275194883</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206">
-        <v>0.5149889976947187</v>
+        <v>0.523568739783183</v>
       </c>
       <c r="B206">
-        <v>0.5149889976947187</v>
+        <v>0.523568739783183</v>
       </c>
       <c r="C206">
-        <v>0.5149889976947187</v>
+        <v>0.523568739783183</v>
       </c>
       <c r="D206">
-        <v>0.5149889976947187</v>
+        <v>0.523568739783183</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207">
-        <v>0.4678757166766832</v>
+        <v>0.473880564408561</v>
       </c>
       <c r="B207">
-        <v>0.4678757166766832</v>
+        <v>0.473880564408561</v>
       </c>
       <c r="C207">
-        <v>0.4678757166766832</v>
+        <v>0.473880564408561</v>
       </c>
       <c r="D207">
-        <v>0.4678757166766832</v>
+        <v>0.473880564408561</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208">
-        <v>0.4070524436118529</v>
+        <v>0.4153595097461</v>
       </c>
       <c r="B208">
-        <v>0.4070524436118529</v>
+        <v>0.4153595097461</v>
       </c>
       <c r="C208">
-        <v>0.4070524436118529</v>
+        <v>0.4153595097461</v>
       </c>
       <c r="D208">
-        <v>0.4070524436118529</v>
+        <v>0.4153595097461</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209">
-        <v>0.2947635761575067</v>
+        <v>0.307635718208557</v>
       </c>
       <c r="B209">
-        <v>0.2947635761575067</v>
+        <v>0.307635718208557</v>
       </c>
       <c r="C209">
-        <v>0.2947635761575067</v>
+        <v>0.307635718208557</v>
       </c>
       <c r="D209">
-        <v>0.2947635761575067</v>
+        <v>0.307635718208557</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210">
-        <v>0.1499146141573731</v>
+        <v>0.164543438344331</v>
       </c>
       <c r="B210">
-        <v>0.1499146141573731</v>
+        <v>0.164543438344331</v>
       </c>
       <c r="C210">
-        <v>0.1499146141573731</v>
+        <v>0.164543438344331</v>
       </c>
       <c r="D210">
-        <v>0.1499146141573731</v>
+        <v>0.164543438344331</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211">
-        <v>0.04505153429055837</v>
+        <v>0.0507062175212761</v>
       </c>
       <c r="B211">
-        <v>0.04505153429055837</v>
+        <v>0.0507062175212761</v>
       </c>
       <c r="C211">
-        <v>0.04505153429055837</v>
+        <v>0.0507062175212761</v>
       </c>
       <c r="D211">
-        <v>0.04505153429055837</v>
+        <v>0.0507062175212761</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212">
-        <v>0.009145878978081853</v>
+        <v>0.0104418373590188</v>
       </c>
       <c r="B212">
-        <v>0.009145878978081853</v>
+        <v>0.0104418373590188</v>
       </c>
       <c r="C212">
-        <v>0.009145878978081853</v>
+        <v>0.0104418373590188</v>
       </c>
       <c r="D212">
-        <v>0.009145878978081853</v>
+        <v>0.0104418373590188</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
       <c r="B213">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
       <c r="C213">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
       <c r="D213">
-        <v>7.858623975333716e-05</v>
+        <v>8.53776431888107e-05</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3459,226 +3459,226 @@
     </row>
     <row r="222" spans="1:4">
       <c r="A222">
-        <v>0.0007151325642405861</v>
+        <v>0.000822775418229812</v>
       </c>
       <c r="B222">
-        <v>0.0007151325642405861</v>
+        <v>0.000822775418229812</v>
       </c>
       <c r="C222">
-        <v>0.0007151325642405861</v>
+        <v>0.000822775418229812</v>
       </c>
       <c r="D222">
-        <v>0.0007151325642405861</v>
+        <v>0.000822775418229812</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223">
-        <v>0.008792862237562401</v>
+        <v>0.0100007068507155</v>
       </c>
       <c r="B223">
-        <v>0.008792862237562401</v>
+        <v>0.0100007068507155</v>
       </c>
       <c r="C223">
-        <v>0.008792862237562401</v>
+        <v>0.0100007068507155</v>
       </c>
       <c r="D223">
-        <v>0.008792862237562401</v>
+        <v>0.0100007068507155</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224">
-        <v>0.04536122398120721</v>
+        <v>0.0509738823813119</v>
       </c>
       <c r="B224">
-        <v>0.04536122398120721</v>
+        <v>0.0509738823813119</v>
       </c>
       <c r="C224">
-        <v>0.04536122398120721</v>
+        <v>0.0509738823813119</v>
       </c>
       <c r="D224">
-        <v>0.04536122398120721</v>
+        <v>0.0509738823813119</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225">
-        <v>0.1383550935826046</v>
+        <v>0.149033406362571</v>
       </c>
       <c r="B225">
-        <v>0.1383550935826046</v>
+        <v>0.149033406362571</v>
       </c>
       <c r="C225">
-        <v>0.1383550935826046</v>
+        <v>0.149033406362571</v>
       </c>
       <c r="D225">
-        <v>0.1383550935826046</v>
+        <v>0.149033406362571</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226">
-        <v>0.2738168261652736</v>
+        <v>0.285597689568726</v>
       </c>
       <c r="B226">
-        <v>0.2738168261652736</v>
+        <v>0.285597689568726</v>
       </c>
       <c r="C226">
-        <v>0.2738168261652736</v>
+        <v>0.285597689568726</v>
       </c>
       <c r="D226">
-        <v>0.2738168261652736</v>
+        <v>0.285597689568726</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227">
-        <v>0.4197742638818799</v>
+        <v>0.43682618809667</v>
       </c>
       <c r="B227">
-        <v>0.4197742638818799</v>
+        <v>0.43682618809667</v>
       </c>
       <c r="C227">
-        <v>0.4197742638818799</v>
+        <v>0.43682618809667</v>
       </c>
       <c r="D227">
-        <v>0.4197742638818799</v>
+        <v>0.43682618809667</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228">
-        <v>0.5281647100325563</v>
+        <v>0.545534554649049</v>
       </c>
       <c r="B228">
-        <v>0.5281647100325563</v>
+        <v>0.545534554649049</v>
       </c>
       <c r="C228">
-        <v>0.5281647100325563</v>
+        <v>0.545534554649049</v>
       </c>
       <c r="D228">
-        <v>0.5281647100325563</v>
+        <v>0.545534554649049</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229">
-        <v>0.5296988530002477</v>
+        <v>0.552061580941364</v>
       </c>
       <c r="B229">
-        <v>0.5296988530002477</v>
+        <v>0.552061580941364</v>
       </c>
       <c r="C229">
-        <v>0.5296988530002477</v>
+        <v>0.552061580941364</v>
       </c>
       <c r="D229">
-        <v>0.5296988530002477</v>
+        <v>0.552061580941364</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230">
-        <v>0.5187887678065833</v>
+        <v>0.540559147284024</v>
       </c>
       <c r="B230">
-        <v>0.5187887678065833</v>
+        <v>0.540559147284024</v>
       </c>
       <c r="C230">
-        <v>0.5187887678065833</v>
+        <v>0.540559147284024</v>
       </c>
       <c r="D230">
-        <v>0.5187887678065833</v>
+        <v>0.540559147284024</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231">
-        <v>0.4888053863125082</v>
+        <v>0.512675531754671</v>
       </c>
       <c r="B231">
-        <v>0.4888053863125082</v>
+        <v>0.512675531754671</v>
       </c>
       <c r="C231">
-        <v>0.4888053863125082</v>
+        <v>0.512675531754671</v>
       </c>
       <c r="D231">
-        <v>0.4888053863125082</v>
+        <v>0.512675531754671</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232">
-        <v>0.3636071489188161</v>
+        <v>0.382980855854171</v>
       </c>
       <c r="B232">
-        <v>0.3636071489188161</v>
+        <v>0.382980855854171</v>
       </c>
       <c r="C232">
-        <v>0.3636071489188161</v>
+        <v>0.382980855854171</v>
       </c>
       <c r="D232">
-        <v>0.3636071489188161</v>
+        <v>0.382980855854171</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233">
-        <v>0.2123532123821948</v>
+        <v>0.225113316722316</v>
       </c>
       <c r="B233">
-        <v>0.2123532123821948</v>
+        <v>0.225113316722316</v>
       </c>
       <c r="C233">
-        <v>0.2123532123821948</v>
+        <v>0.225113316722316</v>
       </c>
       <c r="D233">
-        <v>0.2123532123821948</v>
+        <v>0.225113316722316</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234">
-        <v>0.1221696456784901</v>
+        <v>0.135546389358844</v>
       </c>
       <c r="B234">
-        <v>0.1221696456784901</v>
+        <v>0.135546389358844</v>
       </c>
       <c r="C234">
-        <v>0.1221696456784901</v>
+        <v>0.135546389358844</v>
       </c>
       <c r="D234">
-        <v>0.1221696456784901</v>
+        <v>0.135546389358844</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235">
-        <v>0.04912004377481264</v>
+        <v>0.0545519378171655</v>
       </c>
       <c r="B235">
-        <v>0.04912004377481264</v>
+        <v>0.0545519378171655</v>
       </c>
       <c r="C235">
-        <v>0.04912004377481264</v>
+        <v>0.0545519378171655</v>
       </c>
       <c r="D235">
-        <v>0.04912004377481264</v>
+        <v>0.0545519378171655</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236">
-        <v>0.009223846422546686</v>
+        <v>0.0102489486837683</v>
       </c>
       <c r="B236">
-        <v>0.009223846422546686</v>
+        <v>0.0102489486837683</v>
       </c>
       <c r="C236">
-        <v>0.009223846422546686</v>
+        <v>0.0102489486837683</v>
       </c>
       <c r="D236">
-        <v>0.009223846422546686</v>
+        <v>0.0102489486837683</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237">
-        <v>7.772586687923374e-05</v>
+        <v>8.44429171033651e-05</v>
       </c>
       <c r="B237">
-        <v>7.772586687923374e-05</v>
+        <v>8.44429171033651e-05</v>
       </c>
       <c r="C237">
-        <v>7.772586687923374e-05</v>
+        <v>8.44429171033651e-05</v>
       </c>
       <c r="D237">
-        <v>7.772586687923374e-05</v>
+        <v>8.44429171033651e-05</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3795,226 +3795,226 @@
     </row>
     <row r="246" spans="1:4">
       <c r="A246">
-        <v>0.0007753873966922429</v>
+        <v>0.000842396184060708</v>
       </c>
       <c r="B246">
-        <v>0.0007753873966922429</v>
+        <v>0.000842396184060708</v>
       </c>
       <c r="C246">
-        <v>0.0007753873966922429</v>
+        <v>0.000842396184060708</v>
       </c>
       <c r="D246">
-        <v>0.0007753873966922429</v>
+        <v>0.000842396184060708</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247">
-        <v>0.009317428138714123</v>
+        <v>0.0101532005178404</v>
       </c>
       <c r="B247">
-        <v>0.009317428138714123</v>
+        <v>0.0101532005178404</v>
       </c>
       <c r="C247">
-        <v>0.009317428138714123</v>
+        <v>0.0101532005178404</v>
       </c>
       <c r="D247">
-        <v>0.009317428138714123</v>
+        <v>0.0101532005178404</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248">
-        <v>0.04851811409869921</v>
+        <v>0.0526715231896991</v>
       </c>
       <c r="B248">
-        <v>0.04851811409869921</v>
+        <v>0.0526715231896991</v>
       </c>
       <c r="C248">
-        <v>0.04851811409869921</v>
+        <v>0.0526715231896991</v>
       </c>
       <c r="D248">
-        <v>0.04851811409869921</v>
+        <v>0.0526715231896991</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249">
-        <v>0.1290163527799637</v>
+        <v>0.136926645245631</v>
       </c>
       <c r="B249">
-        <v>0.1290163527799637</v>
+        <v>0.136926645245631</v>
       </c>
       <c r="C249">
-        <v>0.1290163527799637</v>
+        <v>0.136926645245631</v>
       </c>
       <c r="D249">
-        <v>0.1290163527799637</v>
+        <v>0.136926645245631</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250">
-        <v>0.2364343533819468</v>
+        <v>0.251596497569257</v>
       </c>
       <c r="B250">
-        <v>0.2364343533819468</v>
+        <v>0.251596497569257</v>
       </c>
       <c r="C250">
-        <v>0.2364343533819468</v>
+        <v>0.251596497569257</v>
       </c>
       <c r="D250">
-        <v>0.2364343533819468</v>
+        <v>0.251596497569257</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251">
-        <v>0.3353312815197688</v>
+        <v>0.354005789180568</v>
       </c>
       <c r="B251">
-        <v>0.3353312815197688</v>
+        <v>0.354005789180568</v>
       </c>
       <c r="C251">
-        <v>0.3353312815197688</v>
+        <v>0.354005789180568</v>
       </c>
       <c r="D251">
-        <v>0.3353312815197688</v>
+        <v>0.354005789180568</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252">
-        <v>0.4313976208278435</v>
+        <v>0.454706872628095</v>
       </c>
       <c r="B252">
-        <v>0.4313976208278435</v>
+        <v>0.454706872628095</v>
       </c>
       <c r="C252">
-        <v>0.4313976208278435</v>
+        <v>0.454706872628095</v>
       </c>
       <c r="D252">
-        <v>0.4313976208278435</v>
+        <v>0.454706872628095</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253">
-        <v>0.4169390156533013</v>
+        <v>0.428375765115445</v>
       </c>
       <c r="B253">
-        <v>0.4169390156533013</v>
+        <v>0.428375765115445</v>
       </c>
       <c r="C253">
-        <v>0.4169390156533013</v>
+        <v>0.428375765115445</v>
       </c>
       <c r="D253">
-        <v>0.4169390156533013</v>
+        <v>0.428375765115445</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254">
-        <v>0.394693866936708</v>
+        <v>0.400920244454656</v>
       </c>
       <c r="B254">
-        <v>0.394693866936708</v>
+        <v>0.400920244454656</v>
       </c>
       <c r="C254">
-        <v>0.394693866936708</v>
+        <v>0.400920244454656</v>
       </c>
       <c r="D254">
-        <v>0.394693866936708</v>
+        <v>0.400920244454656</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255">
-        <v>0.3681127042504997</v>
+        <v>0.384483103750647</v>
       </c>
       <c r="B255">
-        <v>0.3681127042504997</v>
+        <v>0.384483103750647</v>
       </c>
       <c r="C255">
-        <v>0.3681127042504997</v>
+        <v>0.384483103750647</v>
       </c>
       <c r="D255">
-        <v>0.3681127042504997</v>
+        <v>0.384483103750647</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256">
-        <v>0.3169582405514671</v>
+        <v>0.334311056120983</v>
       </c>
       <c r="B256">
-        <v>0.3169582405514671</v>
+        <v>0.334311056120983</v>
       </c>
       <c r="C256">
-        <v>0.3169582405514671</v>
+        <v>0.334311056120983</v>
       </c>
       <c r="D256">
-        <v>0.3169582405514671</v>
+        <v>0.334311056120983</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257">
-        <v>0.2228234098949098</v>
+        <v>0.236158408402347</v>
       </c>
       <c r="B257">
-        <v>0.2228234098949098</v>
+        <v>0.236158408402347</v>
       </c>
       <c r="C257">
-        <v>0.2228234098949098</v>
+        <v>0.236158408402347</v>
       </c>
       <c r="D257">
-        <v>0.2228234098949098</v>
+        <v>0.236158408402347</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258">
-        <v>0.1404531650704815</v>
+        <v>0.154604222473916</v>
       </c>
       <c r="B258">
-        <v>0.1404531650704815</v>
+        <v>0.154604222473916</v>
       </c>
       <c r="C258">
-        <v>0.1404531650704815</v>
+        <v>0.154604222473916</v>
       </c>
       <c r="D258">
-        <v>0.1404531650704815</v>
+        <v>0.154604222473916</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259">
-        <v>0.05595195410869737</v>
+        <v>0.0625115599796826</v>
       </c>
       <c r="B259">
-        <v>0.05595195410869737</v>
+        <v>0.0625115599796826</v>
       </c>
       <c r="C259">
-        <v>0.05595195410869737</v>
+        <v>0.0625115599796826</v>
       </c>
       <c r="D259">
-        <v>0.05595195410869737</v>
+        <v>0.0625115599796826</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260">
-        <v>0.009642260939624199</v>
+        <v>0.0109638356599595</v>
       </c>
       <c r="B260">
-        <v>0.009642260939624199</v>
+        <v>0.0109638356599595</v>
       </c>
       <c r="C260">
-        <v>0.009642260939624199</v>
+        <v>0.0109638356599595</v>
       </c>
       <c r="D260">
-        <v>0.009642260939624199</v>
+        <v>0.0109638356599595</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261">
-        <v>7.508385071318909e-05</v>
+        <v>8.15725785526005e-05</v>
       </c>
       <c r="B261">
-        <v>7.508385071318909e-05</v>
+        <v>8.15725785526005e-05</v>
       </c>
       <c r="C261">
-        <v>7.508385071318909e-05</v>
+        <v>8.15725785526005e-05</v>
       </c>
       <c r="D261">
-        <v>7.508385071318909e-05</v>
+        <v>8.15725785526005e-05</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -4131,226 +4131,226 @@
     </row>
     <row r="270" spans="1:4">
       <c r="A270">
-        <v>0.000805642229143901</v>
+        <v>0.000936088987510908</v>
       </c>
       <c r="B270">
-        <v>0.000805642229143901</v>
+        <v>0.000936088987510908</v>
       </c>
       <c r="C270">
-        <v>0.000805642229143901</v>
+        <v>0.000936088987510908</v>
       </c>
       <c r="D270">
-        <v>0.000805642229143901</v>
+        <v>0.000936088987510908</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271">
-        <v>0.01079157175011446</v>
+        <v>0.0122603259544166</v>
       </c>
       <c r="B271">
-        <v>0.01079157175011446</v>
+        <v>0.0122603259544166</v>
       </c>
       <c r="C271">
-        <v>0.01079157175011446</v>
+        <v>0.0122603259544166</v>
       </c>
       <c r="D271">
-        <v>0.01079157175011446</v>
+        <v>0.0122603259544166</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272">
-        <v>0.05202775684674393</v>
+        <v>0.0581676222383987</v>
       </c>
       <c r="B272">
-        <v>0.05202775684674393</v>
+        <v>0.0581676222383987</v>
       </c>
       <c r="C272">
-        <v>0.05202775684674393</v>
+        <v>0.0581676222383987</v>
       </c>
       <c r="D272">
-        <v>0.05202775684674393</v>
+        <v>0.0581676222383987</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273">
-        <v>0.136867651461034</v>
+        <v>0.1476003271139</v>
       </c>
       <c r="B273">
-        <v>0.136867651461034</v>
+        <v>0.1476003271139</v>
       </c>
       <c r="C273">
-        <v>0.136867651461034</v>
+        <v>0.1476003271139</v>
       </c>
       <c r="D273">
-        <v>0.136867651461034</v>
+        <v>0.1476003271139</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274">
-        <v>0.2696724040131354</v>
+        <v>0.283871400433168</v>
       </c>
       <c r="B274">
-        <v>0.2696724040131354</v>
+        <v>0.283871400433168</v>
       </c>
       <c r="C274">
-        <v>0.2696724040131354</v>
+        <v>0.283871400433168</v>
       </c>
       <c r="D274">
-        <v>0.2696724040131354</v>
+        <v>0.283871400433168</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275">
-        <v>0.38033836994139</v>
+        <v>0.400131810960113</v>
       </c>
       <c r="B275">
-        <v>0.38033836994139</v>
+        <v>0.400131810960113</v>
       </c>
       <c r="C275">
-        <v>0.38033836994139</v>
+        <v>0.400131810960113</v>
       </c>
       <c r="D275">
-        <v>0.38033836994139</v>
+        <v>0.400131810960113</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276">
-        <v>0.4333972432591674</v>
+        <v>0.459917196203896</v>
       </c>
       <c r="B276">
-        <v>0.4333972432591674</v>
+        <v>0.459917196203896</v>
       </c>
       <c r="C276">
-        <v>0.4333972432591674</v>
+        <v>0.459917196203896</v>
       </c>
       <c r="D276">
-        <v>0.4333972432591674</v>
+        <v>0.459917196203896</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277">
-        <v>0.4513843153942239</v>
+        <v>0.46431723477805</v>
       </c>
       <c r="B277">
-        <v>0.4513843153942239</v>
+        <v>0.46431723477805</v>
       </c>
       <c r="C277">
-        <v>0.4513843153942239</v>
+        <v>0.46431723477805</v>
       </c>
       <c r="D277">
-        <v>0.4513843153942239</v>
+        <v>0.46431723477805</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278">
-        <v>0.4447040604695037</v>
+        <v>0.456413612936919</v>
       </c>
       <c r="B278">
-        <v>0.4447040604695037</v>
+        <v>0.456413612936919</v>
       </c>
       <c r="C278">
-        <v>0.4447040604695037</v>
+        <v>0.456413612936919</v>
       </c>
       <c r="D278">
-        <v>0.4447040604695037</v>
+        <v>0.456413612936919</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279">
-        <v>0.4127684263638187</v>
+        <v>0.429908946275284</v>
       </c>
       <c r="B279">
-        <v>0.4127684263638187</v>
+        <v>0.429908946275284</v>
       </c>
       <c r="C279">
-        <v>0.4127684263638187</v>
+        <v>0.429908946275284</v>
       </c>
       <c r="D279">
-        <v>0.4127684263638187</v>
+        <v>0.429908946275284</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280">
-        <v>0.3192314507877084</v>
+        <v>0.333613233705222</v>
       </c>
       <c r="B280">
-        <v>0.3192314507877084</v>
+        <v>0.333613233705222</v>
       </c>
       <c r="C280">
-        <v>0.3192314507877084</v>
+        <v>0.333613233705222</v>
       </c>
       <c r="D280">
-        <v>0.3192314507877084</v>
+        <v>0.333613233705222</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281">
-        <v>0.2403502156762481</v>
+        <v>0.254502964825907</v>
       </c>
       <c r="B281">
-        <v>0.2403502156762481</v>
+        <v>0.254502964825907</v>
       </c>
       <c r="C281">
-        <v>0.2403502156762481</v>
+        <v>0.254502964825907</v>
       </c>
       <c r="D281">
-        <v>0.2403502156762481</v>
+        <v>0.254502964825907</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282">
-        <v>0.1294731988078514</v>
+        <v>0.142784344266852</v>
       </c>
       <c r="B282">
-        <v>0.1294731988078514</v>
+        <v>0.142784344266852</v>
       </c>
       <c r="C282">
-        <v>0.1294731988078514</v>
+        <v>0.142784344266852</v>
       </c>
       <c r="D282">
-        <v>0.1294731988078514</v>
+        <v>0.142784344266852</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283">
-        <v>0.0496995542170086</v>
+        <v>0.0557174709958555</v>
       </c>
       <c r="B283">
-        <v>0.0496995542170086</v>
+        <v>0.0557174709958555</v>
       </c>
       <c r="C283">
-        <v>0.0496995542170086</v>
+        <v>0.0557174709958555</v>
       </c>
       <c r="D283">
-        <v>0.0496995542170086</v>
+        <v>0.0557174709958555</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284">
-        <v>0.009432881348342238</v>
+        <v>0.0107360541450679</v>
       </c>
       <c r="B284">
-        <v>0.009432881348342238</v>
+        <v>0.0107360541450679</v>
       </c>
       <c r="C284">
-        <v>0.009432881348342238</v>
+        <v>0.0107360541450679</v>
       </c>
       <c r="D284">
-        <v>0.009432881348342238</v>
+        <v>0.0107360541450679</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285">
-        <v>0.0003850904068297801</v>
+        <v>0.000418369824703959</v>
       </c>
       <c r="B285">
-        <v>0.0003850904068297801</v>
+        <v>0.000418369824703959</v>
       </c>
       <c r="C285">
-        <v>0.0003850904068297801</v>
+        <v>0.000418369824703959</v>
       </c>
       <c r="D285">
-        <v>0.0003850904068297801</v>
+        <v>0.000418369824703959</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -4467,226 +4467,226 @@
     </row>
     <row r="294" spans="1:4">
       <c r="A294">
-        <v>0.001386069444674479</v>
+        <v>0.00156198971720616</v>
       </c>
       <c r="B294">
-        <v>0.001386069444674479</v>
+        <v>0.00156198971720616</v>
       </c>
       <c r="C294">
-        <v>0.001386069444674479</v>
+        <v>0.00156198971720616</v>
       </c>
       <c r="D294">
-        <v>0.001386069444674479</v>
+        <v>0.00156198971720616</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295">
-        <v>0.01534658954916115</v>
+        <v>0.017184349790899</v>
       </c>
       <c r="B295">
-        <v>0.01534658954916115</v>
+        <v>0.017184349790899</v>
       </c>
       <c r="C295">
-        <v>0.01534658954916115</v>
+        <v>0.017184349790899</v>
       </c>
       <c r="D295">
-        <v>0.01534658954916115</v>
+        <v>0.017184349790899</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296">
-        <v>0.06909969816576404</v>
+        <v>0.0757977856261942</v>
       </c>
       <c r="B296">
-        <v>0.06909969816576404</v>
+        <v>0.0757977856261942</v>
       </c>
       <c r="C296">
-        <v>0.06909969816576404</v>
+        <v>0.0757977856261942</v>
       </c>
       <c r="D296">
-        <v>0.06909969816576404</v>
+        <v>0.0757977856261942</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297">
-        <v>0.173057536372578</v>
+        <v>0.187434925881371</v>
       </c>
       <c r="B297">
-        <v>0.173057536372578</v>
+        <v>0.187434925881371</v>
       </c>
       <c r="C297">
-        <v>0.173057536372578</v>
+        <v>0.187434925881371</v>
       </c>
       <c r="D297">
-        <v>0.173057536372578</v>
+        <v>0.187434925881371</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298">
-        <v>0.3065113261782759</v>
+        <v>0.328157977570049</v>
       </c>
       <c r="B298">
-        <v>0.3065113261782759</v>
+        <v>0.328157977570049</v>
       </c>
       <c r="C298">
-        <v>0.3065113261782759</v>
+        <v>0.328157977570049</v>
       </c>
       <c r="D298">
-        <v>0.3065113261782759</v>
+        <v>0.328157977570049</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299">
-        <v>0.4285362721223244</v>
+        <v>0.449681314522127</v>
       </c>
       <c r="B299">
-        <v>0.4285362721223244</v>
+        <v>0.449681314522127</v>
       </c>
       <c r="C299">
-        <v>0.4285362721223244</v>
+        <v>0.449681314522127</v>
       </c>
       <c r="D299">
-        <v>0.4285362721223244</v>
+        <v>0.449681314522127</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300">
-        <v>0.5402322224256962</v>
+        <v>0.553584679418685</v>
       </c>
       <c r="B300">
-        <v>0.5402322224256962</v>
+        <v>0.553584679418685</v>
       </c>
       <c r="C300">
-        <v>0.5402322224256962</v>
+        <v>0.553584679418685</v>
       </c>
       <c r="D300">
-        <v>0.5402322224256962</v>
+        <v>0.553584679418685</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301">
-        <v>0.5661976105686323</v>
+        <v>0.57368156005412</v>
       </c>
       <c r="B301">
-        <v>0.5661976105686323</v>
+        <v>0.57368156005412</v>
       </c>
       <c r="C301">
-        <v>0.5661976105686323</v>
+        <v>0.57368156005412</v>
       </c>
       <c r="D301">
-        <v>0.5661976105686323</v>
+        <v>0.57368156005412</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302">
-        <v>0.5228218231999311</v>
+        <v>0.529675202180382</v>
       </c>
       <c r="B302">
-        <v>0.5228218231999311</v>
+        <v>0.529675202180382</v>
       </c>
       <c r="C302">
-        <v>0.5228218231999311</v>
+        <v>0.529675202180382</v>
       </c>
       <c r="D302">
-        <v>0.5228218231999311</v>
+        <v>0.529675202180382</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303">
-        <v>0.4489896987291566</v>
+        <v>0.457697757018056</v>
       </c>
       <c r="B303">
-        <v>0.4489896987291566</v>
+        <v>0.457697757018056</v>
       </c>
       <c r="C303">
-        <v>0.4489896987291566</v>
+        <v>0.457697757018056</v>
       </c>
       <c r="D303">
-        <v>0.4489896987291566</v>
+        <v>0.457697757018056</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304">
-        <v>0.3837740368706687</v>
+        <v>0.397898408542382</v>
       </c>
       <c r="B304">
-        <v>0.3837740368706687</v>
+        <v>0.397898408542382</v>
       </c>
       <c r="C304">
-        <v>0.3837740368706687</v>
+        <v>0.397898408542382</v>
       </c>
       <c r="D304">
-        <v>0.3837740368706687</v>
+        <v>0.397898408542382</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305">
-        <v>0.2785840303084381</v>
+        <v>0.295603646816113</v>
       </c>
       <c r="B305">
-        <v>0.2785840303084381</v>
+        <v>0.295603646816113</v>
       </c>
       <c r="C305">
-        <v>0.2785840303084381</v>
+        <v>0.295603646816113</v>
       </c>
       <c r="D305">
-        <v>0.2785840303084381</v>
+        <v>0.295603646816113</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306">
-        <v>0.15436744633585</v>
+        <v>0.169948361178005</v>
       </c>
       <c r="B306">
-        <v>0.15436744633585</v>
+        <v>0.169948361178005</v>
       </c>
       <c r="C306">
-        <v>0.15436744633585</v>
+        <v>0.169948361178005</v>
       </c>
       <c r="D306">
-        <v>0.15436744633585</v>
+        <v>0.169948361178005</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307">
-        <v>0.05551349269785863</v>
+        <v>0.0620053988171496</v>
       </c>
       <c r="B307">
-        <v>0.05551349269785863</v>
+        <v>0.0620053988171496</v>
       </c>
       <c r="C307">
-        <v>0.05551349269785863</v>
+        <v>0.0620053988171496</v>
       </c>
       <c r="D307">
-        <v>0.05551349269785863</v>
+        <v>0.0620053988171496</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308">
-        <v>0.0105337476489031</v>
+        <v>0.0119258193331989</v>
       </c>
       <c r="B308">
-        <v>0.0105337476489031</v>
+        <v>0.0119258193331989</v>
       </c>
       <c r="C308">
-        <v>0.0105337476489031</v>
+        <v>0.0119258193331989</v>
       </c>
       <c r="D308">
-        <v>0.0105337476489031</v>
+        <v>0.0119258193331989</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
       <c r="B309">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
       <c r="C309">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
       <c r="D309">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -4803,226 +4803,226 @@
     </row>
     <row r="318" spans="1:4">
       <c r="A318">
-        <v>0.001354126032753929</v>
+        <v>0.00147114927015242</v>
       </c>
       <c r="B318">
-        <v>0.001354126032753929</v>
+        <v>0.00147114927015242</v>
       </c>
       <c r="C318">
-        <v>0.001354126032753929</v>
+        <v>0.00147114927015242</v>
       </c>
       <c r="D318">
-        <v>0.001354126032753929</v>
+        <v>0.00147114927015242</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319">
-        <v>0.01596296126210854</v>
+        <v>0.0173597162276858</v>
       </c>
       <c r="B319">
-        <v>0.01596296126210854</v>
+        <v>0.0173597162276858</v>
       </c>
       <c r="C319">
-        <v>0.01596296126210854</v>
+        <v>0.0173597162276858</v>
       </c>
       <c r="D319">
-        <v>0.01596296126210854</v>
+        <v>0.0173597162276858</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320">
-        <v>0.07793940376721617</v>
+        <v>0.0850571498152562</v>
       </c>
       <c r="B320">
-        <v>0.07793940376721617</v>
+        <v>0.0850571498152562</v>
       </c>
       <c r="C320">
-        <v>0.07793940376721617</v>
+        <v>0.0850571498152562</v>
       </c>
       <c r="D320">
-        <v>0.07793940376721617</v>
+        <v>0.0850571498152562</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321">
-        <v>0.1947540080450683</v>
+        <v>0.213415700450201</v>
       </c>
       <c r="B321">
-        <v>0.1947540080450683</v>
+        <v>0.213415700450201</v>
       </c>
       <c r="C321">
-        <v>0.1947540080450683</v>
+        <v>0.213415700450201</v>
       </c>
       <c r="D321">
-        <v>0.1947540080450683</v>
+        <v>0.213415700450201</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322">
-        <v>0.3357378557275091</v>
+        <v>0.363137586102192</v>
       </c>
       <c r="B322">
-        <v>0.3357378557275091</v>
+        <v>0.363137586102192</v>
       </c>
       <c r="C322">
-        <v>0.3357378557275091</v>
+        <v>0.363137586102192</v>
       </c>
       <c r="D322">
-        <v>0.3357378557275091</v>
+        <v>0.363137586102192</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323">
-        <v>0.4759168891788605</v>
+        <v>0.506689525160505</v>
       </c>
       <c r="B323">
-        <v>0.4759168891788605</v>
+        <v>0.506689525160505</v>
       </c>
       <c r="C323">
-        <v>0.4759168891788605</v>
+        <v>0.506689525160505</v>
       </c>
       <c r="D323">
-        <v>0.4759168891788605</v>
+        <v>0.506689525160505</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324">
-        <v>0.5507446203916658</v>
+        <v>0.580621238760177</v>
       </c>
       <c r="B324">
-        <v>0.5507446203916658</v>
+        <v>0.580621238760177</v>
       </c>
       <c r="C324">
-        <v>0.5507446203916658</v>
+        <v>0.580621238760177</v>
       </c>
       <c r="D324">
-        <v>0.5507446203916658</v>
+        <v>0.580621238760177</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325">
-        <v>0.5966155862712125</v>
+        <v>0.62725816648661</v>
       </c>
       <c r="B325">
-        <v>0.5966155862712125</v>
+        <v>0.62725816648661</v>
       </c>
       <c r="C325">
-        <v>0.5966155862712125</v>
+        <v>0.62725816648661</v>
       </c>
       <c r="D325">
-        <v>0.5966155862712125</v>
+        <v>0.62725816648661</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326">
-        <v>0.5961964856150797</v>
+        <v>0.628416752854682</v>
       </c>
       <c r="B326">
-        <v>0.5961964856150797</v>
+        <v>0.628416752854682</v>
       </c>
       <c r="C326">
-        <v>0.5961964856150797</v>
+        <v>0.628416752854682</v>
       </c>
       <c r="D326">
-        <v>0.5961964856150797</v>
+        <v>0.628416752854682</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327">
-        <v>0.5308546602205161</v>
+        <v>0.561531215029514</v>
       </c>
       <c r="B327">
-        <v>0.5308546602205161</v>
+        <v>0.561531215029514</v>
       </c>
       <c r="C327">
-        <v>0.5308546602205161</v>
+        <v>0.561531215029514</v>
       </c>
       <c r="D327">
-        <v>0.5308546602205161</v>
+        <v>0.561531215029514</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328">
-        <v>0.4363509674919417</v>
+        <v>0.465769488155416</v>
       </c>
       <c r="B328">
-        <v>0.4363509674919417</v>
+        <v>0.465769488155416</v>
       </c>
       <c r="C328">
-        <v>0.4363509674919417</v>
+        <v>0.465769488155416</v>
       </c>
       <c r="D328">
-        <v>0.4363509674919417</v>
+        <v>0.465769488155416</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329">
-        <v>0.3079930179604025</v>
+        <v>0.332820565809033</v>
       </c>
       <c r="B329">
-        <v>0.3079930179604025</v>
+        <v>0.332820565809033</v>
       </c>
       <c r="C329">
-        <v>0.3079930179604025</v>
+        <v>0.332820565809033</v>
       </c>
       <c r="D329">
-        <v>0.3079930179604025</v>
+        <v>0.332820565809033</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330">
-        <v>0.180695501369257</v>
+        <v>0.199843591998984</v>
       </c>
       <c r="B330">
-        <v>0.180695501369257</v>
+        <v>0.199843591998984</v>
       </c>
       <c r="C330">
-        <v>0.180695501369257</v>
+        <v>0.199843591998984</v>
       </c>
       <c r="D330">
-        <v>0.180695501369257</v>
+        <v>0.199843591998984</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331">
-        <v>0.06575022020305762</v>
+        <v>0.0728270717691645</v>
       </c>
       <c r="B331">
-        <v>0.06575022020305762</v>
+        <v>0.0728270717691645</v>
       </c>
       <c r="C331">
-        <v>0.06575022020305762</v>
+        <v>0.0728270717691645</v>
       </c>
       <c r="D331">
-        <v>0.06575022020305762</v>
+        <v>0.0728270717691645</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332">
-        <v>0.01392619915348727</v>
+        <v>0.0155605384490519</v>
       </c>
       <c r="B332">
-        <v>0.01392619915348727</v>
+        <v>0.0155605384490519</v>
       </c>
       <c r="C332">
-        <v>0.01392619915348727</v>
+        <v>0.0155605384490519</v>
       </c>
       <c r="D332">
-        <v>0.01392619915348727</v>
+        <v>0.0155605384490519</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
       <c r="B333">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
       <c r="C333">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
       <c r="D333">
-        <v>0.0003920586463838355</v>
+        <v>0.000425940257799723</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -5139,226 +5139,226 @@
     </row>
     <row r="342" spans="1:4">
       <c r="A342">
-        <v>0</v>
+        <v>0.000535770489846733</v>
       </c>
       <c r="B342">
-        <v>0</v>
+        <v>0.000535770489846733</v>
       </c>
       <c r="C342">
-        <v>0</v>
+        <v>0.000535770489846733</v>
       </c>
       <c r="D342">
-        <v>0</v>
+        <v>0.000535770489846733</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343">
-        <v>0</v>
+        <v>0.0131444691038342</v>
       </c>
       <c r="B343">
-        <v>0</v>
+        <v>0.0131444691038342</v>
       </c>
       <c r="C343">
-        <v>0</v>
+        <v>0.0131444691038342</v>
       </c>
       <c r="D343">
-        <v>0</v>
+        <v>0.0131444691038342</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344">
-        <v>0</v>
+        <v>0.0709509296148874</v>
       </c>
       <c r="B344">
-        <v>0</v>
+        <v>0.0709509296148874</v>
       </c>
       <c r="C344">
-        <v>0</v>
+        <v>0.0709509296148874</v>
       </c>
       <c r="D344">
-        <v>0</v>
+        <v>0.0709509296148874</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345">
-        <v>0.00913221464517131</v>
+        <v>0.185206505455949</v>
       </c>
       <c r="B345">
-        <v>0.00913221464517131</v>
+        <v>0.185206505455949</v>
       </c>
       <c r="C345">
-        <v>0.00913221464517131</v>
+        <v>0.185206505455949</v>
       </c>
       <c r="D345">
-        <v>0.00913221464517131</v>
+        <v>0.185206505455949</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346">
-        <v>0.04786880021410985</v>
+        <v>0.318173385573932</v>
       </c>
       <c r="B346">
-        <v>0.04786880021410985</v>
+        <v>0.318173385573932</v>
       </c>
       <c r="C346">
-        <v>0.04786880021410985</v>
+        <v>0.318173385573932</v>
       </c>
       <c r="D346">
-        <v>0.04786880021410985</v>
+        <v>0.318173385573932</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347">
-        <v>0.1156972963770067</v>
+        <v>0.381425474739827</v>
       </c>
       <c r="B347">
-        <v>0.1156972963770067</v>
+        <v>0.381425474739827</v>
       </c>
       <c r="C347">
-        <v>0.1156972963770067</v>
+        <v>0.381425474739827</v>
       </c>
       <c r="D347">
-        <v>0.1156972963770067</v>
+        <v>0.381425474739827</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348">
-        <v>0.1649070942423197</v>
+        <v>0.449856819988044</v>
       </c>
       <c r="B348">
-        <v>0.1649070942423197</v>
+        <v>0.449856819988044</v>
       </c>
       <c r="C348">
-        <v>0.1649070942423197</v>
+        <v>0.449856819988044</v>
       </c>
       <c r="D348">
-        <v>0.1649070942423197</v>
+        <v>0.449856819988044</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349">
-        <v>0.1842303996838445</v>
+        <v>0.418872648124647</v>
       </c>
       <c r="B349">
-        <v>0.1842303996838445</v>
+        <v>0.418872648124647</v>
       </c>
       <c r="C349">
-        <v>0.1842303996838445</v>
+        <v>0.418872648124647</v>
       </c>
       <c r="D349">
-        <v>0.1842303996838445</v>
+        <v>0.418872648124647</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350">
-        <v>0.1881736081081648</v>
+        <v>0.408783814709565</v>
       </c>
       <c r="B350">
-        <v>0.1881736081081648</v>
+        <v>0.408783814709565</v>
       </c>
       <c r="C350">
-        <v>0.1881736081081648</v>
+        <v>0.408783814709565</v>
       </c>
       <c r="D350">
-        <v>0.1881736081081648</v>
+        <v>0.408783814709565</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351">
-        <v>0.1333728307518585</v>
+        <v>0.434151130328893</v>
       </c>
       <c r="B351">
-        <v>0.1333728307518585</v>
+        <v>0.434151130328893</v>
       </c>
       <c r="C351">
-        <v>0.1333728307518585</v>
+        <v>0.434151130328893</v>
       </c>
       <c r="D351">
-        <v>0.1333728307518585</v>
+        <v>0.434151130328893</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352">
-        <v>0.09892262052618453</v>
+        <v>0.401819669919642</v>
       </c>
       <c r="B352">
-        <v>0.09892262052618453</v>
+        <v>0.401819669919642</v>
       </c>
       <c r="C352">
-        <v>0.09892262052618453</v>
+        <v>0.401819669919642</v>
       </c>
       <c r="D352">
-        <v>0.09892262052618453</v>
+        <v>0.401819669919642</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353">
-        <v>0.04344325831243306</v>
+        <v>0.266701101136879</v>
       </c>
       <c r="B353">
-        <v>0.04344325831243306</v>
+        <v>0.266701101136879</v>
       </c>
       <c r="C353">
-        <v>0.04344325831243306</v>
+        <v>0.266701101136879</v>
       </c>
       <c r="D353">
-        <v>0.04344325831243306</v>
+        <v>0.266701101136879</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354">
-        <v>0.006531539880233027</v>
+        <v>0.187058250240295</v>
       </c>
       <c r="B354">
-        <v>0.006531539880233027</v>
+        <v>0.187058250240295</v>
       </c>
       <c r="C354">
-        <v>0.006531539880233027</v>
+        <v>0.187058250240295</v>
       </c>
       <c r="D354">
-        <v>0.006531539880233027</v>
+        <v>0.187058250240295</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355">
-        <v>0</v>
+        <v>0.0791669312586005</v>
       </c>
       <c r="B355">
-        <v>0</v>
+        <v>0.0791669312586005</v>
       </c>
       <c r="C355">
-        <v>0</v>
+        <v>0.0791669312586005</v>
       </c>
       <c r="D355">
-        <v>0</v>
+        <v>0.0791669312586005</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356">
-        <v>0</v>
+        <v>0.0205259190498793</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>0.0205259190498793</v>
       </c>
       <c r="C356">
-        <v>0</v>
+        <v>0.0205259190498793</v>
       </c>
       <c r="D356">
-        <v>0</v>
+        <v>0.0205259190498793</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357">
-        <v>0</v>
+        <v>0.00192969856397366</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>0.00192969856397366</v>
       </c>
       <c r="C357">
-        <v>0</v>
+        <v>0.00192969856397366</v>
       </c>
       <c r="D357">
-        <v>0</v>
+        <v>0.00192969856397366</v>
       </c>
     </row>
     <row r="358" spans="1:4">
@@ -5475,226 +5475,226 @@
     </row>
     <row r="366" spans="1:4">
       <c r="A366">
-        <v>0</v>
+        <v>0.00179433518765443</v>
       </c>
       <c r="B366">
-        <v>0</v>
+        <v>0.00179433518765443</v>
       </c>
       <c r="C366">
-        <v>0</v>
+        <v>0.00179433518765443</v>
       </c>
       <c r="D366">
-        <v>0</v>
+        <v>0.00179433518765443</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367">
-        <v>0</v>
+        <v>0.0152590264070105</v>
       </c>
       <c r="B367">
-        <v>0</v>
+        <v>0.0152590264070105</v>
       </c>
       <c r="C367">
-        <v>0</v>
+        <v>0.0152590264070105</v>
       </c>
       <c r="D367">
-        <v>0</v>
+        <v>0.0152590264070105</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368">
-        <v>0</v>
+        <v>0.070097333072563</v>
       </c>
       <c r="B368">
-        <v>0</v>
+        <v>0.070097333072563</v>
       </c>
       <c r="C368">
-        <v>0</v>
+        <v>0.070097333072563</v>
       </c>
       <c r="D368">
-        <v>0</v>
+        <v>0.070097333072563</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369">
-        <v>0.007746344690972695</v>
+        <v>0.170842086124622</v>
       </c>
       <c r="B369">
-        <v>0.007746344690972695</v>
+        <v>0.170842086124622</v>
       </c>
       <c r="C369">
-        <v>0.007746344690972695</v>
+        <v>0.170842086124622</v>
       </c>
       <c r="D369">
-        <v>0.007746344690972695</v>
+        <v>0.170842086124622</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370">
-        <v>0.04554012927022841</v>
+        <v>0.30699044341697</v>
       </c>
       <c r="B370">
-        <v>0.04554012927022841</v>
+        <v>0.30699044341697</v>
       </c>
       <c r="C370">
-        <v>0.04554012927022841</v>
+        <v>0.30699044341697</v>
       </c>
       <c r="D370">
-        <v>0.04554012927022841</v>
+        <v>0.30699044341697</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371">
-        <v>0.123421267596457</v>
+        <v>0.392983794019897</v>
       </c>
       <c r="B371">
-        <v>0.123421267596457</v>
+        <v>0.392983794019897</v>
       </c>
       <c r="C371">
-        <v>0.123421267596457</v>
+        <v>0.392983794019897</v>
       </c>
       <c r="D371">
-        <v>0.123421267596457</v>
+        <v>0.392983794019897</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372">
-        <v>0.1879556223081297</v>
+        <v>0.44635283704708</v>
       </c>
       <c r="B372">
-        <v>0.1879556223081297</v>
+        <v>0.44635283704708</v>
       </c>
       <c r="C372">
-        <v>0.1879556223081297</v>
+        <v>0.44635283704708</v>
       </c>
       <c r="D372">
-        <v>0.1879556223081297</v>
+        <v>0.44635283704708</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373">
-        <v>0.2235675829156793</v>
+        <v>0.454553541133241</v>
       </c>
       <c r="B373">
-        <v>0.2235675829156793</v>
+        <v>0.454553541133241</v>
       </c>
       <c r="C373">
-        <v>0.2235675829156793</v>
+        <v>0.454553541133241</v>
       </c>
       <c r="D373">
-        <v>0.2235675829156793</v>
+        <v>0.454553541133241</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374">
-        <v>0.2213340807177036</v>
+        <v>0.464689221924535</v>
       </c>
       <c r="B374">
-        <v>0.2213340807177036</v>
+        <v>0.464689221924535</v>
       </c>
       <c r="C374">
-        <v>0.2213340807177036</v>
+        <v>0.464689221924535</v>
       </c>
       <c r="D374">
-        <v>0.2213340807177036</v>
+        <v>0.464689221924535</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375">
-        <v>0.1853313270365997</v>
+        <v>0.40870087973403</v>
       </c>
       <c r="B375">
-        <v>0.1853313270365997</v>
+        <v>0.40870087973403</v>
       </c>
       <c r="C375">
-        <v>0.1853313270365997</v>
+        <v>0.40870087973403</v>
       </c>
       <c r="D375">
-        <v>0.1853313270365997</v>
+        <v>0.40870087973403</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376">
-        <v>0.1191883769848058</v>
+        <v>0.356240774951385</v>
       </c>
       <c r="B376">
-        <v>0.1191883769848058</v>
+        <v>0.356240774951385</v>
       </c>
       <c r="C376">
-        <v>0.1191883769848058</v>
+        <v>0.356240774951385</v>
       </c>
       <c r="D376">
-        <v>0.1191883769848058</v>
+        <v>0.356240774951385</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377">
-        <v>0.05038504786116048</v>
+        <v>0.293408641914549</v>
       </c>
       <c r="B377">
-        <v>0.05038504786116048</v>
+        <v>0.293408641914549</v>
       </c>
       <c r="C377">
-        <v>0.05038504786116048</v>
+        <v>0.293408641914549</v>
       </c>
       <c r="D377">
-        <v>0.05038504786116048</v>
+        <v>0.293408641914549</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378">
-        <v>0.00868312452693237</v>
+        <v>0.175444845022952</v>
       </c>
       <c r="B378">
-        <v>0.00868312452693237</v>
+        <v>0.175444845022952</v>
       </c>
       <c r="C378">
-        <v>0.00868312452693237</v>
+        <v>0.175444845022952</v>
       </c>
       <c r="D378">
-        <v>0.00868312452693237</v>
+        <v>0.175444845022952</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379">
-        <v>0</v>
+        <v>0.0815673298356391</v>
       </c>
       <c r="B379">
-        <v>0</v>
+        <v>0.0815673298356391</v>
       </c>
       <c r="C379">
-        <v>0</v>
+        <v>0.0815673298356391</v>
       </c>
       <c r="D379">
-        <v>0</v>
+        <v>0.0815673298356391</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380">
-        <v>0</v>
+        <v>0.0174073287914789</v>
       </c>
       <c r="B380">
-        <v>0</v>
+        <v>0.0174073287914789</v>
       </c>
       <c r="C380">
-        <v>0</v>
+        <v>0.0174073287914789</v>
       </c>
       <c r="D380">
-        <v>0</v>
+        <v>0.0174073287914789</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381">
-        <v>0</v>
+        <v>0.00147030492786322</v>
       </c>
       <c r="B381">
-        <v>0</v>
+        <v>0.00147030492786322</v>
       </c>
       <c r="C381">
-        <v>0</v>
+        <v>0.00147030492786322</v>
       </c>
       <c r="D381">
-        <v>0</v>
+        <v>0.00147030492786322</v>
       </c>
     </row>
     <row r="382" spans="1:4">
@@ -5811,226 +5811,226 @@
     </row>
     <row r="390" spans="1:4">
       <c r="A390">
-        <v>0</v>
+        <v>0.00129315682197465</v>
       </c>
       <c r="B390">
-        <v>0</v>
+        <v>0.00129315682197465</v>
       </c>
       <c r="C390">
-        <v>0</v>
+        <v>0.00129315682197465</v>
       </c>
       <c r="D390">
-        <v>0</v>
+        <v>0.00129315682197465</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391">
-        <v>0</v>
+        <v>0.0145964653640598</v>
       </c>
       <c r="B391">
-        <v>0</v>
+        <v>0.0145964653640598</v>
       </c>
       <c r="C391">
-        <v>0</v>
+        <v>0.0145964653640598</v>
       </c>
       <c r="D391">
-        <v>0</v>
+        <v>0.0145964653640598</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392">
-        <v>0</v>
+        <v>0.0789028959217817</v>
       </c>
       <c r="B392">
-        <v>0</v>
+        <v>0.0789028959217817</v>
       </c>
       <c r="C392">
-        <v>0</v>
+        <v>0.0789028959217817</v>
       </c>
       <c r="D392">
-        <v>0</v>
+        <v>0.0789028959217817</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393">
-        <v>0.01056064942351726</v>
+        <v>0.166339700619264</v>
       </c>
       <c r="B393">
-        <v>0.01056064942351726</v>
+        <v>0.166339700619264</v>
       </c>
       <c r="C393">
-        <v>0.01056064942351726</v>
+        <v>0.166339700619264</v>
       </c>
       <c r="D393">
-        <v>0.01056064942351726</v>
+        <v>0.166339700619264</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394">
-        <v>0.05789896183675226</v>
+        <v>0.260465772554156</v>
       </c>
       <c r="B394">
-        <v>0.05789896183675226</v>
+        <v>0.260465772554156</v>
       </c>
       <c r="C394">
-        <v>0.05789896183675226</v>
+        <v>0.260465772554156</v>
       </c>
       <c r="D394">
-        <v>0.05789896183675226</v>
+        <v>0.260465772554156</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395">
-        <v>0.1188612185455279</v>
+        <v>0.369606623363043</v>
       </c>
       <c r="B395">
-        <v>0.1188612185455279</v>
+        <v>0.369606623363043</v>
       </c>
       <c r="C395">
-        <v>0.1188612185455279</v>
+        <v>0.369606623363043</v>
       </c>
       <c r="D395">
-        <v>0.1188612185455279</v>
+        <v>0.369606623363043</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396">
-        <v>0.1733892771394277</v>
+        <v>0.492380569807223</v>
       </c>
       <c r="B396">
-        <v>0.1733892771394277</v>
+        <v>0.492380569807223</v>
       </c>
       <c r="C396">
-        <v>0.1733892771394277</v>
+        <v>0.492380569807223</v>
       </c>
       <c r="D396">
-        <v>0.1733892771394277</v>
+        <v>0.492380569807223</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397">
-        <v>0.2024898349881943</v>
+        <v>0.519045922012511</v>
       </c>
       <c r="B397">
-        <v>0.2024898349881943</v>
+        <v>0.519045922012511</v>
       </c>
       <c r="C397">
-        <v>0.2024898349881943</v>
+        <v>0.519045922012511</v>
       </c>
       <c r="D397">
-        <v>0.2024898349881943</v>
+        <v>0.519045922012511</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398">
-        <v>0.2004311230336781</v>
+        <v>0.535428488084915</v>
       </c>
       <c r="B398">
-        <v>0.2004311230336781</v>
+        <v>0.535428488084915</v>
       </c>
       <c r="C398">
-        <v>0.2004311230336781</v>
+        <v>0.535428488084915</v>
       </c>
       <c r="D398">
-        <v>0.2004311230336781</v>
+        <v>0.535428488084915</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399">
-        <v>0.1645636781712252</v>
+        <v>0.458296672995784</v>
       </c>
       <c r="B399">
-        <v>0.1645636781712252</v>
+        <v>0.458296672995784</v>
       </c>
       <c r="C399">
-        <v>0.1645636781712252</v>
+        <v>0.458296672995784</v>
       </c>
       <c r="D399">
-        <v>0.1645636781712252</v>
+        <v>0.458296672995784</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400">
-        <v>0.1089284004557677</v>
+        <v>0.364451530189017</v>
       </c>
       <c r="B400">
-        <v>0.1089284004557677</v>
+        <v>0.364451530189017</v>
       </c>
       <c r="C400">
-        <v>0.1089284004557677</v>
+        <v>0.364451530189017</v>
       </c>
       <c r="D400">
-        <v>0.1089284004557677</v>
+        <v>0.364451530189017</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401">
-        <v>0.03873921826787227</v>
+        <v>0.29375785255971</v>
       </c>
       <c r="B401">
-        <v>0.03873921826787227</v>
+        <v>0.29375785255971</v>
       </c>
       <c r="C401">
-        <v>0.03873921826787227</v>
+        <v>0.29375785255971</v>
       </c>
       <c r="D401">
-        <v>0.03873921826787227</v>
+        <v>0.29375785255971</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402">
-        <v>0.007082116968906088</v>
+        <v>0.207445071516781</v>
       </c>
       <c r="B402">
-        <v>0.007082116968906088</v>
+        <v>0.207445071516781</v>
       </c>
       <c r="C402">
-        <v>0.007082116968906088</v>
+        <v>0.207445071516781</v>
       </c>
       <c r="D402">
-        <v>0.007082116968906088</v>
+        <v>0.207445071516781</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403">
-        <v>0</v>
+        <v>0.0756328630603603</v>
       </c>
       <c r="B403">
-        <v>0</v>
+        <v>0.0756328630603603</v>
       </c>
       <c r="C403">
-        <v>0</v>
+        <v>0.0756328630603603</v>
       </c>
       <c r="D403">
-        <v>0</v>
+        <v>0.0756328630603603</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404">
-        <v>0</v>
+        <v>0.0205380145663398</v>
       </c>
       <c r="B404">
-        <v>0</v>
+        <v>0.0205380145663398</v>
       </c>
       <c r="C404">
-        <v>0</v>
+        <v>0.0205380145663398</v>
       </c>
       <c r="D404">
-        <v>0</v>
+        <v>0.0205380145663398</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405">
-        <v>0</v>
+        <v>0.00172106507434805</v>
       </c>
       <c r="B405">
-        <v>0</v>
+        <v>0.00172106507434805</v>
       </c>
       <c r="C405">
-        <v>0</v>
+        <v>0.00172106507434805</v>
       </c>
       <c r="D405">
-        <v>0</v>
+        <v>0.00172106507434805</v>
       </c>
     </row>
     <row r="406" spans="1:4">
@@ -6147,226 +6147,226 @@
     </row>
     <row r="414" spans="1:4">
       <c r="A414">
-        <v>0</v>
+        <v>0.00184296356553834</v>
       </c>
       <c r="B414">
-        <v>0</v>
+        <v>0.00184296356553834</v>
       </c>
       <c r="C414">
-        <v>0</v>
+        <v>0.00184296356553834</v>
       </c>
       <c r="D414">
-        <v>0</v>
+        <v>0.00184296356553834</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415">
-        <v>0</v>
+        <v>0.0132909248387152</v>
       </c>
       <c r="B415">
-        <v>0</v>
+        <v>0.0132909248387152</v>
       </c>
       <c r="C415">
-        <v>0</v>
+        <v>0.0132909248387152</v>
       </c>
       <c r="D415">
-        <v>0</v>
+        <v>0.0132909248387152</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416">
-        <v>0</v>
+        <v>0.0709070375923959</v>
       </c>
       <c r="B416">
-        <v>0</v>
+        <v>0.0709070375923959</v>
       </c>
       <c r="C416">
-        <v>0</v>
+        <v>0.0709070375923959</v>
       </c>
       <c r="D416">
-        <v>0</v>
+        <v>0.0709070375923959</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417">
-        <v>0.01008935345669247</v>
+        <v>0.198160156935658</v>
       </c>
       <c r="B417">
-        <v>0.01008935345669247</v>
+        <v>0.198160156935658</v>
       </c>
       <c r="C417">
-        <v>0.01008935345669247</v>
+        <v>0.198160156935658</v>
       </c>
       <c r="D417">
-        <v>0.01008935345669247</v>
+        <v>0.198160156935658</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418">
-        <v>0.05638507749646421</v>
+        <v>0.287896623414675</v>
       </c>
       <c r="B418">
-        <v>0.05638507749646421</v>
+        <v>0.287896623414675</v>
       </c>
       <c r="C418">
-        <v>0.05638507749646421</v>
+        <v>0.287896623414675</v>
       </c>
       <c r="D418">
-        <v>0.05638507749646421</v>
+        <v>0.287896623414675</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419">
-        <v>0.1219936032188461</v>
+        <v>0.374783753746159</v>
       </c>
       <c r="B419">
-        <v>0.1219936032188461</v>
+        <v>0.374783753746159</v>
       </c>
       <c r="C419">
-        <v>0.1219936032188461</v>
+        <v>0.374783753746159</v>
       </c>
       <c r="D419">
-        <v>0.1219936032188461</v>
+        <v>0.374783753746159</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420">
-        <v>0.1663895846808326</v>
+        <v>0.45509514035768</v>
       </c>
       <c r="B420">
-        <v>0.1663895846808326</v>
+        <v>0.45509514035768</v>
       </c>
       <c r="C420">
-        <v>0.1663895846808326</v>
+        <v>0.45509514035768</v>
       </c>
       <c r="D420">
-        <v>0.1663895846808326</v>
+        <v>0.45509514035768</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421">
-        <v>0.1937797878766121</v>
+        <v>0.475778842084278</v>
       </c>
       <c r="B421">
-        <v>0.1937797878766121</v>
+        <v>0.475778842084278</v>
       </c>
       <c r="C421">
-        <v>0.1937797878766121</v>
+        <v>0.475778842084278</v>
       </c>
       <c r="D421">
-        <v>0.1937797878766121</v>
+        <v>0.475778842084278</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422">
-        <v>0.1941676012333718</v>
+        <v>0.471892043582787</v>
       </c>
       <c r="B422">
-        <v>0.1941676012333718</v>
+        <v>0.471892043582787</v>
       </c>
       <c r="C422">
-        <v>0.1941676012333718</v>
+        <v>0.471892043582787</v>
       </c>
       <c r="D422">
-        <v>0.1941676012333718</v>
+        <v>0.471892043582787</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423">
-        <v>0.1585635932798723</v>
+        <v>0.40344088782779</v>
       </c>
       <c r="B423">
-        <v>0.1585635932798723</v>
+        <v>0.40344088782779</v>
       </c>
       <c r="C423">
-        <v>0.1585635932798723</v>
+        <v>0.40344088782779</v>
       </c>
       <c r="D423">
-        <v>0.1585635932798723</v>
+        <v>0.40344088782779</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424">
-        <v>0.1092500966801</v>
+        <v>0.330008030007633</v>
       </c>
       <c r="B424">
-        <v>0.1092500966801</v>
+        <v>0.330008030007633</v>
       </c>
       <c r="C424">
-        <v>0.1092500966801</v>
+        <v>0.330008030007633</v>
       </c>
       <c r="D424">
-        <v>0.1092500966801</v>
+        <v>0.330008030007633</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425">
-        <v>0.03713291338484376</v>
+        <v>0.290914036453425</v>
       </c>
       <c r="B425">
-        <v>0.03713291338484376</v>
+        <v>0.290914036453425</v>
       </c>
       <c r="C425">
-        <v>0.03713291338484376</v>
+        <v>0.290914036453425</v>
       </c>
       <c r="D425">
-        <v>0.03713291338484376</v>
+        <v>0.290914036453425</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426">
-        <v>0.005081007048938487</v>
+        <v>0.177153951540053</v>
       </c>
       <c r="B426">
-        <v>0.005081007048938487</v>
+        <v>0.177153951540053</v>
       </c>
       <c r="C426">
-        <v>0.005081007048938487</v>
+        <v>0.177153951540053</v>
       </c>
       <c r="D426">
-        <v>0.005081007048938487</v>
+        <v>0.177153951540053</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427">
-        <v>0</v>
+        <v>0.0774330738880853</v>
       </c>
       <c r="B427">
-        <v>0</v>
+        <v>0.0774330738880853</v>
       </c>
       <c r="C427">
-        <v>0</v>
+        <v>0.0774330738880853</v>
       </c>
       <c r="D427">
-        <v>0</v>
+        <v>0.0774330738880853</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428">
-        <v>0</v>
+        <v>0.0158318920430671</v>
       </c>
       <c r="B428">
-        <v>0</v>
+        <v>0.0158318920430671</v>
       </c>
       <c r="C428">
-        <v>0</v>
+        <v>0.0158318920430671</v>
       </c>
       <c r="D428">
-        <v>0</v>
+        <v>0.0158318920430671</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429">
-        <v>0</v>
+        <v>0.00109724748208773</v>
       </c>
       <c r="B429">
-        <v>0</v>
+        <v>0.00109724748208773</v>
       </c>
       <c r="C429">
-        <v>0</v>
+        <v>0.00109724748208773</v>
       </c>
       <c r="D429">
-        <v>0</v>
+        <v>0.00109724748208773</v>
       </c>
     </row>
     <row r="430" spans="1:4">
@@ -6483,226 +6483,226 @@
     </row>
     <row r="438" spans="1:4">
       <c r="A438">
-        <v>0</v>
+        <v>0.00360590412362666</v>
       </c>
       <c r="B438">
-        <v>0</v>
+        <v>0.00360590412362666</v>
       </c>
       <c r="C438">
-        <v>0</v>
+        <v>0.00360590412362666</v>
       </c>
       <c r="D438">
-        <v>0</v>
+        <v>0.00360590412362666</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439">
-        <v>0</v>
+        <v>0.0261656803254457</v>
       </c>
       <c r="B439">
-        <v>0</v>
+        <v>0.0261656803254457</v>
       </c>
       <c r="C439">
-        <v>0</v>
+        <v>0.0261656803254457</v>
       </c>
       <c r="D439">
-        <v>0</v>
+        <v>0.0261656803254457</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440">
-        <v>0.0002378686822533458</v>
+        <v>0.0954707698550476</v>
       </c>
       <c r="B440">
-        <v>0.0002378686822533458</v>
+        <v>0.0954707698550476</v>
       </c>
       <c r="C440">
-        <v>0.0002378686822533458</v>
+        <v>0.0954707698550476</v>
       </c>
       <c r="D440">
-        <v>0.0002378686822533458</v>
+        <v>0.0954707698550476</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441">
-        <v>0.0106253092663653</v>
+        <v>0.200095994736396</v>
       </c>
       <c r="B441">
-        <v>0.0106253092663653</v>
+        <v>0.200095994736396</v>
       </c>
       <c r="C441">
-        <v>0.0106253092663653</v>
+        <v>0.200095994736396</v>
       </c>
       <c r="D441">
-        <v>0.0106253092663653</v>
+        <v>0.200095994736396</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442">
-        <v>0.0580593016878798</v>
+        <v>0.328513832698492</v>
       </c>
       <c r="B442">
-        <v>0.0580593016878798</v>
+        <v>0.328513832698492</v>
       </c>
       <c r="C442">
-        <v>0.0580593016878798</v>
+        <v>0.328513832698492</v>
       </c>
       <c r="D442">
-        <v>0.0580593016878798</v>
+        <v>0.328513832698492</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443">
-        <v>0.1197640125409134</v>
+        <v>0.40585440467362</v>
       </c>
       <c r="B443">
-        <v>0.1197640125409134</v>
+        <v>0.40585440467362</v>
       </c>
       <c r="C443">
-        <v>0.1197640125409134</v>
+        <v>0.40585440467362</v>
       </c>
       <c r="D443">
-        <v>0.1197640125409134</v>
+        <v>0.40585440467362</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444">
-        <v>0.1735022289731918</v>
+        <v>0.405569294913339</v>
       </c>
       <c r="B444">
-        <v>0.1735022289731918</v>
+        <v>0.405569294913339</v>
       </c>
       <c r="C444">
-        <v>0.1735022289731918</v>
+        <v>0.405569294913339</v>
       </c>
       <c r="D444">
-        <v>0.1735022289731918</v>
+        <v>0.405569294913339</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445">
-        <v>0.2186440268495383</v>
+        <v>0.392421897835199</v>
       </c>
       <c r="B445">
-        <v>0.2186440268495383</v>
+        <v>0.392421897835199</v>
       </c>
       <c r="C445">
-        <v>0.2186440268495383</v>
+        <v>0.392421897835199</v>
       </c>
       <c r="D445">
-        <v>0.2186440268495383</v>
+        <v>0.392421897835199</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446">
-        <v>0.2285926482711702</v>
+        <v>0.386846571947067</v>
       </c>
       <c r="B446">
-        <v>0.2285926482711702</v>
+        <v>0.386846571947067</v>
       </c>
       <c r="C446">
-        <v>0.2285926482711702</v>
+        <v>0.386846571947067</v>
       </c>
       <c r="D446">
-        <v>0.2285926482711702</v>
+        <v>0.386846571947067</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447">
-        <v>0.2026741379745581</v>
+        <v>0.337697163123434</v>
       </c>
       <c r="B447">
-        <v>0.2026741379745581</v>
+        <v>0.337697163123434</v>
       </c>
       <c r="C447">
-        <v>0.2026741379745581</v>
+        <v>0.337697163123434</v>
       </c>
       <c r="D447">
-        <v>0.2026741379745581</v>
+        <v>0.337697163123434</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448">
-        <v>0.1133027247364974</v>
+        <v>0.365705355626256</v>
       </c>
       <c r="B448">
-        <v>0.1133027247364974</v>
+        <v>0.365705355626256</v>
       </c>
       <c r="C448">
-        <v>0.1133027247364974</v>
+        <v>0.365705355626256</v>
       </c>
       <c r="D448">
-        <v>0.1133027247364974</v>
+        <v>0.365705355626256</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449">
-        <v>0.04317806262566545</v>
+        <v>0.292624740382948</v>
       </c>
       <c r="B449">
-        <v>0.04317806262566545</v>
+        <v>0.292624740382948</v>
       </c>
       <c r="C449">
-        <v>0.04317806262566545</v>
+        <v>0.292624740382948</v>
       </c>
       <c r="D449">
-        <v>0.04317806262566545</v>
+        <v>0.292624740382948</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450">
-        <v>0.007648659318445304</v>
+        <v>0.180057836644066</v>
       </c>
       <c r="B450">
-        <v>0.007648659318445304</v>
+        <v>0.180057836644066</v>
       </c>
       <c r="C450">
-        <v>0.007648659318445304</v>
+        <v>0.180057836644066</v>
       </c>
       <c r="D450">
-        <v>0.007648659318445304</v>
+        <v>0.180057836644066</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451">
-        <v>0</v>
+        <v>0.0760291953086829</v>
       </c>
       <c r="B451">
-        <v>0</v>
+        <v>0.0760291953086829</v>
       </c>
       <c r="C451">
-        <v>0</v>
+        <v>0.0760291953086829</v>
       </c>
       <c r="D451">
-        <v>0</v>
+        <v>0.0760291953086829</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452">
-        <v>0</v>
+        <v>0.0194907533718034</v>
       </c>
       <c r="B452">
-        <v>0</v>
+        <v>0.0194907533718034</v>
       </c>
       <c r="C452">
-        <v>0</v>
+        <v>0.0194907533718034</v>
       </c>
       <c r="D452">
-        <v>0</v>
+        <v>0.0194907533718034</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453">
-        <v>0</v>
+        <v>0.00167076668754387</v>
       </c>
       <c r="B453">
-        <v>0</v>
+        <v>0.00167076668754387</v>
       </c>
       <c r="C453">
-        <v>0</v>
+        <v>0.00167076668754387</v>
       </c>
       <c r="D453">
-        <v>0</v>
+        <v>0.00167076668754387</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -6819,226 +6819,226 @@
     </row>
     <row r="462" spans="1:4">
       <c r="A462">
-        <v>0</v>
+        <v>0.00231269745063947</v>
       </c>
       <c r="B462">
-        <v>0</v>
+        <v>0.00231269745063947</v>
       </c>
       <c r="C462">
-        <v>0</v>
+        <v>0.00231269745063947</v>
       </c>
       <c r="D462">
-        <v>0</v>
+        <v>0.00231269745063947</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463">
-        <v>0</v>
+        <v>0.0185862633493272</v>
       </c>
       <c r="B463">
-        <v>0</v>
+        <v>0.0185862633493272</v>
       </c>
       <c r="C463">
-        <v>0</v>
+        <v>0.0185862633493272</v>
       </c>
       <c r="D463">
-        <v>0</v>
+        <v>0.0185862633493272</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464">
-        <v>0.0004623132804083106</v>
+        <v>0.0728221059538062</v>
       </c>
       <c r="B464">
-        <v>0.0004623132804083106</v>
+        <v>0.0728221059538062</v>
       </c>
       <c r="C464">
-        <v>0.0004623132804083106</v>
+        <v>0.0728221059538062</v>
       </c>
       <c r="D464">
-        <v>0.0004623132804083106</v>
+        <v>0.0728221059538062</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465">
-        <v>0.01336074537064728</v>
+        <v>0.186616186622148</v>
       </c>
       <c r="B465">
-        <v>0.01336074537064728</v>
+        <v>0.186616186622148</v>
       </c>
       <c r="C465">
-        <v>0.01336074537064728</v>
+        <v>0.186616186622148</v>
       </c>
       <c r="D465">
-        <v>0.01336074537064728</v>
+        <v>0.186616186622148</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466">
-        <v>0.05714463576712398</v>
+        <v>0.348249707525483</v>
       </c>
       <c r="B466">
-        <v>0.05714463576712398</v>
+        <v>0.348249707525483</v>
       </c>
       <c r="C466">
-        <v>0.05714463576712398</v>
+        <v>0.348249707525483</v>
       </c>
       <c r="D466">
-        <v>0.05714463576712398</v>
+        <v>0.348249707525483</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467">
-        <v>0.1177320313346918</v>
+        <v>0.48920511117351</v>
       </c>
       <c r="B467">
-        <v>0.1177320313346918</v>
+        <v>0.48920511117351</v>
       </c>
       <c r="C467">
-        <v>0.1177320313346918</v>
+        <v>0.48920511117351</v>
       </c>
       <c r="D467">
-        <v>0.1177320313346918</v>
+        <v>0.48920511117351</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468">
-        <v>0.1507284978604303</v>
+        <v>0.553669163784294</v>
       </c>
       <c r="B468">
-        <v>0.1507284978604303</v>
+        <v>0.553669163784294</v>
       </c>
       <c r="C468">
-        <v>0.1507284978604303</v>
+        <v>0.553669163784294</v>
       </c>
       <c r="D468">
-        <v>0.1507284978604303</v>
+        <v>0.553669163784294</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469">
-        <v>0.1829927319746873</v>
+        <v>0.544440864261077</v>
       </c>
       <c r="B469">
-        <v>0.1829927319746873</v>
+        <v>0.544440864261077</v>
       </c>
       <c r="C469">
-        <v>0.1829927319746873</v>
+        <v>0.544440864261077</v>
       </c>
       <c r="D469">
-        <v>0.1829927319746873</v>
+        <v>0.544440864261077</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470">
-        <v>0.1916448058982202</v>
+        <v>0.57453752580161</v>
       </c>
       <c r="B470">
-        <v>0.1916448058982202</v>
+        <v>0.57453752580161</v>
       </c>
       <c r="C470">
-        <v>0.1916448058982202</v>
+        <v>0.57453752580161</v>
       </c>
       <c r="D470">
-        <v>0.1916448058982202</v>
+        <v>0.57453752580161</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471">
-        <v>0.1641159734911797</v>
+        <v>0.542507872266789</v>
       </c>
       <c r="B471">
-        <v>0.1641159734911797</v>
+        <v>0.542507872266789</v>
       </c>
       <c r="C471">
-        <v>0.1641159734911797</v>
+        <v>0.542507872266789</v>
       </c>
       <c r="D471">
-        <v>0.1641159734911797</v>
+        <v>0.542507872266789</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472">
-        <v>0.1073052190081237</v>
+        <v>0.441129773295477</v>
       </c>
       <c r="B472">
-        <v>0.1073052190081237</v>
+        <v>0.441129773295477</v>
       </c>
       <c r="C472">
-        <v>0.1073052190081237</v>
+        <v>0.441129773295477</v>
       </c>
       <c r="D472">
-        <v>0.1073052190081237</v>
+        <v>0.441129773295477</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473">
-        <v>0.04255985740555494</v>
+        <v>0.306660599105149</v>
       </c>
       <c r="B473">
-        <v>0.04255985740555494</v>
+        <v>0.306660599105149</v>
       </c>
       <c r="C473">
-        <v>0.04255985740555494</v>
+        <v>0.306660599105149</v>
       </c>
       <c r="D473">
-        <v>0.04255985740555494</v>
+        <v>0.306660599105149</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474">
-        <v>0.01160938563610699</v>
+        <v>0.207874858418828</v>
       </c>
       <c r="B474">
-        <v>0.01160938563610699</v>
+        <v>0.207874858418828</v>
       </c>
       <c r="C474">
-        <v>0.01160938563610699</v>
+        <v>0.207874858418828</v>
       </c>
       <c r="D474">
-        <v>0.01160938563610699</v>
+        <v>0.207874858418828</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475">
-        <v>0.0004236725475918126</v>
+        <v>0.0809364274552386</v>
       </c>
       <c r="B475">
-        <v>0.0004236725475918126</v>
+        <v>0.0809364274552386</v>
       </c>
       <c r="C475">
-        <v>0.0004236725475918126</v>
+        <v>0.0809364274552386</v>
       </c>
       <c r="D475">
-        <v>0.0004236725475918126</v>
+        <v>0.0809364274552386</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476">
-        <v>0</v>
+        <v>0.0205022607429317</v>
       </c>
       <c r="B476">
-        <v>0</v>
+        <v>0.0205022607429317</v>
       </c>
       <c r="C476">
-        <v>0</v>
+        <v>0.0205022607429317</v>
       </c>
       <c r="D476">
-        <v>0</v>
+        <v>0.0205022607429317</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477">
-        <v>0</v>
+        <v>0.00169916322655934</v>
       </c>
       <c r="B477">
-        <v>0</v>
+        <v>0.00169916322655934</v>
       </c>
       <c r="C477">
-        <v>0</v>
+        <v>0.00169916322655934</v>
       </c>
       <c r="D477">
-        <v>0</v>
+        <v>0.00169916322655934</v>
       </c>
     </row>
     <row r="478" spans="1:4">
@@ -7155,226 +7155,226 @@
     </row>
     <row r="486" spans="1:4">
       <c r="A486">
-        <v>0</v>
+        <v>0.00134828883893949</v>
       </c>
       <c r="B486">
-        <v>0</v>
+        <v>0.00134828883893949</v>
       </c>
       <c r="C486">
-        <v>0</v>
+        <v>0.00134828883893949</v>
       </c>
       <c r="D486">
-        <v>0</v>
+        <v>0.00134828883893949</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487">
-        <v>0</v>
+        <v>0.0112807563185239</v>
       </c>
       <c r="B487">
-        <v>0</v>
+        <v>0.0112807563185239</v>
       </c>
       <c r="C487">
-        <v>0</v>
+        <v>0.0112807563185239</v>
       </c>
       <c r="D487">
-        <v>0</v>
+        <v>0.0112807563185239</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488">
-        <v>0.0005258829920364743</v>
+        <v>0.0588292133640398</v>
       </c>
       <c r="B488">
-        <v>0.0005258829920364743</v>
+        <v>0.0588292133640398</v>
       </c>
       <c r="C488">
-        <v>0.0005258829920364743</v>
+        <v>0.0588292133640398</v>
       </c>
       <c r="D488">
-        <v>0.0005258829920364743</v>
+        <v>0.0588292133640398</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489">
-        <v>0.009983642614185858</v>
+        <v>0.189750392445206</v>
       </c>
       <c r="B489">
-        <v>0.009983642614185858</v>
+        <v>0.189750392445206</v>
       </c>
       <c r="C489">
-        <v>0.009983642614185858</v>
+        <v>0.189750392445206</v>
       </c>
       <c r="D489">
-        <v>0.009983642614185858</v>
+        <v>0.189750392445206</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490">
-        <v>0.04897072126659269</v>
+        <v>0.326652049296372</v>
       </c>
       <c r="B490">
-        <v>0.04897072126659269</v>
+        <v>0.326652049296372</v>
       </c>
       <c r="C490">
-        <v>0.04897072126659269</v>
+        <v>0.326652049296372</v>
       </c>
       <c r="D490">
-        <v>0.04897072126659269</v>
+        <v>0.326652049296372</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491">
-        <v>0.1125900719065219</v>
+        <v>0.44830392869765</v>
       </c>
       <c r="B491">
-        <v>0.1125900719065219</v>
+        <v>0.44830392869765</v>
       </c>
       <c r="C491">
-        <v>0.1125900719065219</v>
+        <v>0.44830392869765</v>
       </c>
       <c r="D491">
-        <v>0.1125900719065219</v>
+        <v>0.44830392869765</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492">
-        <v>0.1721241210214292</v>
+        <v>0.452055734053022</v>
       </c>
       <c r="B492">
-        <v>0.1721241210214292</v>
+        <v>0.452055734053022</v>
       </c>
       <c r="C492">
-        <v>0.1721241210214292</v>
+        <v>0.452055734053022</v>
       </c>
       <c r="D492">
-        <v>0.1721241210214292</v>
+        <v>0.452055734053022</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493">
-        <v>0.2050873961905718</v>
+        <v>0.426573477906984</v>
       </c>
       <c r="B493">
-        <v>0.2050873961905718</v>
+        <v>0.426573477906984</v>
       </c>
       <c r="C493">
-        <v>0.2050873961905718</v>
+        <v>0.426573477906984</v>
       </c>
       <c r="D493">
-        <v>0.2050873961905718</v>
+        <v>0.426573477906984</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494">
-        <v>0.1902634878772448</v>
+        <v>0.434061251634539</v>
       </c>
       <c r="B494">
-        <v>0.1902634878772448</v>
+        <v>0.434061251634539</v>
       </c>
       <c r="C494">
-        <v>0.1902634878772448</v>
+        <v>0.434061251634539</v>
       </c>
       <c r="D494">
-        <v>0.1902634878772448</v>
+        <v>0.434061251634539</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495">
-        <v>0.1166169955254634</v>
+        <v>0.452981686506294</v>
       </c>
       <c r="B495">
-        <v>0.1166169955254634</v>
+        <v>0.452981686506294</v>
       </c>
       <c r="C495">
-        <v>0.1166169955254634</v>
+        <v>0.452981686506294</v>
       </c>
       <c r="D495">
-        <v>0.1166169955254634</v>
+        <v>0.452981686506294</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496">
-        <v>0.0719736826097187</v>
+        <v>0.394690959559589</v>
       </c>
       <c r="B496">
-        <v>0.0719736826097187</v>
+        <v>0.394690959559589</v>
       </c>
       <c r="C496">
-        <v>0.0719736826097187</v>
+        <v>0.394690959559589</v>
       </c>
       <c r="D496">
-        <v>0.0719736826097187</v>
+        <v>0.394690959559589</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497">
-        <v>0.02885340142419114</v>
+        <v>0.306290760557063</v>
       </c>
       <c r="B497">
-        <v>0.02885340142419114</v>
+        <v>0.306290760557063</v>
       </c>
       <c r="C497">
-        <v>0.02885340142419114</v>
+        <v>0.306290760557063</v>
       </c>
       <c r="D497">
-        <v>0.02885340142419114</v>
+        <v>0.306290760557063</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498">
-        <v>0.006186432635922607</v>
+        <v>0.194951868326229</v>
       </c>
       <c r="B498">
-        <v>0.006186432635922607</v>
+        <v>0.194951868326229</v>
       </c>
       <c r="C498">
-        <v>0.006186432635922607</v>
+        <v>0.194951868326229</v>
       </c>
       <c r="D498">
-        <v>0.006186432635922607</v>
+        <v>0.194951868326229</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499">
-        <v>0.0001243702150409405</v>
+        <v>0.0797474663532072</v>
       </c>
       <c r="B499">
-        <v>0.0001243702150409405</v>
+        <v>0.0797474663532072</v>
       </c>
       <c r="C499">
-        <v>0.0001243702150409405</v>
+        <v>0.0797474663532072</v>
       </c>
       <c r="D499">
-        <v>0.0001243702150409405</v>
+        <v>0.0797474663532072</v>
       </c>
     </row>
     <row r="500" spans="1:4">
       <c r="A500">
-        <v>0</v>
+        <v>0.0144185433714968</v>
       </c>
       <c r="B500">
-        <v>0</v>
+        <v>0.0144185433714968</v>
       </c>
       <c r="C500">
-        <v>0</v>
+        <v>0.0144185433714968</v>
       </c>
       <c r="D500">
-        <v>0</v>
+        <v>0.0144185433714968</v>
       </c>
     </row>
     <row r="501" spans="1:4">
       <c r="A501">
-        <v>0</v>
+        <v>0.000477125894553687</v>
       </c>
       <c r="B501">
-        <v>0</v>
+        <v>0.000477125894553687</v>
       </c>
       <c r="C501">
-        <v>0</v>
+        <v>0.000477125894553687</v>
       </c>
       <c r="D501">
-        <v>0</v>
+        <v>0.000477125894553687</v>
       </c>
     </row>
     <row r="502" spans="1:4">
